--- a/Dataset/3.2ER Employment by Industry Time Series - May 2020.xlsx
+++ b/Dataset/3.2ER Employment by Industry Time Series - May 2020.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A9561A-6901-4FB4-AC4F-7835FDF1FD8B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2136E9-C7DF-8C4B-9186-C02F9E4ABE0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="786" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="786" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Source" sheetId="1" r:id="rId1"/>
     <sheet name="SA4 based regions" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SA4 based regions'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SA4 based regions'!$A$1:$C$875</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -297,7 +297,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1873,14 +1873,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="22.5" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>77</v>
       </c>
@@ -1893,7 +1893,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="22.5" customHeight="1">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -1904,7 +1904,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="15" customHeight="1">
       <c r="B5" s="7" t="s">
         <v>78</v>
       </c>
@@ -1917,7 +1917,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="15" customHeight="1">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1928,7 +1928,7 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10">
       <c r="B7" s="6" t="s">
         <v>74</v>
       </c>
@@ -1941,7 +1941,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10">
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -1952,7 +1952,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10">
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -1963,7 +1963,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -1974,7 +1974,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10">
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -1998,22 +1998,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F875"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D457" sqref="D230:D457"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -2033,7 +2034,7 @@
         <v>42125</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2053,7 +2054,7 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2073,7 +2074,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2093,7 +2094,7 @@
         <v>13100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2113,7 +2114,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2133,7 +2134,7 @@
         <v>27100</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2153,7 +2154,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -2173,7 +2174,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -2193,7 +2194,7 @@
         <v>22900</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -2213,7 +2214,7 @@
         <v>7800</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -2233,7 +2234,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -2253,7 +2254,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -2273,7 +2274,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -2293,7 +2294,7 @@
         <v>24500</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -2313,7 +2314,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -2333,7 +2334,7 @@
         <v>73800</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -2353,7 +2354,7 @@
         <v>25600</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -2373,7 +2374,7 @@
         <v>39500</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -2393,7 +2394,7 @@
         <v>6900</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -2413,7 +2414,7 @@
         <v>9300</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2433,7 +2434,7 @@
         <v>11300</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -2453,7 +2454,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -2473,7 +2474,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" hidden="1">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -2493,7 +2494,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2513,7 +2514,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2533,7 +2534,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -2553,7 +2554,7 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -2573,7 +2574,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" hidden="1">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -2593,7 +2594,7 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" hidden="1">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -2613,7 +2614,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -2633,7 +2634,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" hidden="1">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -2653,7 +2654,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -2673,7 +2674,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" hidden="1">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -2693,7 +2694,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" hidden="1">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -2713,7 +2714,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -2733,7 +2734,7 @@
         <v>8700</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" hidden="1">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -2753,7 +2754,7 @@
         <v>11600</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" hidden="1">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -2773,7 +2774,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" hidden="1">
       <c r="A39" t="s">
         <v>24</v>
       </c>
@@ -2793,7 +2794,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -2813,7 +2814,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" hidden="1">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -2833,7 +2834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" hidden="1">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -2853,7 +2854,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" hidden="1">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -2873,7 +2874,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -2893,7 +2894,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1">
       <c r="A45" t="s">
         <v>26</v>
       </c>
@@ -2913,7 +2914,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1">
       <c r="A46" t="s">
         <v>26</v>
       </c>
@@ -2933,7 +2934,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" hidden="1">
       <c r="A47" t="s">
         <v>26</v>
       </c>
@@ -2953,7 +2954,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" hidden="1">
       <c r="A48" t="s">
         <v>26</v>
       </c>
@@ -2973,7 +2974,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" hidden="1">
       <c r="A49" t="s">
         <v>26</v>
       </c>
@@ -2993,7 +2994,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" hidden="1">
       <c r="A50" t="s">
         <v>26</v>
       </c>
@@ -3013,7 +3014,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" hidden="1">
       <c r="A51" t="s">
         <v>26</v>
       </c>
@@ -3033,7 +3034,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" hidden="1">
       <c r="A52" t="s">
         <v>26</v>
       </c>
@@ -3053,7 +3054,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" hidden="1">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -3073,7 +3074,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" hidden="1">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -3093,7 +3094,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" hidden="1">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -3113,7 +3114,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" hidden="1">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -3133,7 +3134,7 @@
         <v>7300</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" hidden="1">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -3153,7 +3154,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" hidden="1">
       <c r="A58" t="s">
         <v>26</v>
       </c>
@@ -3173,7 +3174,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" hidden="1">
       <c r="A59" t="s">
         <v>27</v>
       </c>
@@ -3193,7 +3194,7 @@
         <v>8900</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" hidden="1">
       <c r="A60" t="s">
         <v>27</v>
       </c>
@@ -3213,7 +3214,7 @@
         <v>16700</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" hidden="1">
       <c r="A61" t="s">
         <v>27</v>
       </c>
@@ -3233,7 +3234,7 @@
         <v>26800</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" hidden="1">
       <c r="A62" t="s">
         <v>27</v>
       </c>
@@ -3253,7 +3254,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" hidden="1">
       <c r="A63" t="s">
         <v>27</v>
       </c>
@@ -3273,7 +3274,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" hidden="1">
       <c r="A64" t="s">
         <v>27</v>
       </c>
@@ -3293,7 +3294,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" hidden="1">
       <c r="A65" t="s">
         <v>27</v>
       </c>
@@ -3313,7 +3314,7 @@
         <v>29100</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" hidden="1">
       <c r="A66" t="s">
         <v>27</v>
       </c>
@@ -3333,7 +3334,7 @@
         <v>26800</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" hidden="1">
       <c r="A67" t="s">
         <v>27</v>
       </c>
@@ -3353,7 +3354,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" hidden="1">
       <c r="A68" t="s">
         <v>27</v>
       </c>
@@ -3373,7 +3374,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" hidden="1">
       <c r="A69" t="s">
         <v>27</v>
       </c>
@@ -3393,7 +3394,7 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" hidden="1">
       <c r="A70" t="s">
         <v>27</v>
       </c>
@@ -3413,7 +3414,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" hidden="1">
       <c r="A71" t="s">
         <v>27</v>
       </c>
@@ -3433,7 +3434,7 @@
         <v>13800</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" hidden="1">
       <c r="A72" t="s">
         <v>27</v>
       </c>
@@ -3453,7 +3454,7 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" hidden="1">
       <c r="A73" t="s">
         <v>27</v>
       </c>
@@ -3473,7 +3474,7 @@
         <v>16900</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" hidden="1">
       <c r="A74" t="s">
         <v>27</v>
       </c>
@@ -3493,7 +3494,7 @@
         <v>19700</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" hidden="1">
       <c r="A75" t="s">
         <v>27</v>
       </c>
@@ -3513,7 +3514,7 @@
         <v>39100</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" hidden="1">
       <c r="A76" t="s">
         <v>27</v>
       </c>
@@ -3533,7 +3534,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" hidden="1">
       <c r="A77" t="s">
         <v>27</v>
       </c>
@@ -3553,7 +3554,7 @@
         <v>14200</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" hidden="1">
       <c r="A78" t="s">
         <v>28</v>
       </c>
@@ -3573,7 +3574,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" hidden="1">
       <c r="A79" t="s">
         <v>28</v>
       </c>
@@ -3593,7 +3594,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" hidden="1">
       <c r="A80" t="s">
         <v>28</v>
       </c>
@@ -3613,7 +3614,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" hidden="1">
       <c r="A81" t="s">
         <v>28</v>
       </c>
@@ -3633,7 +3634,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" hidden="1">
       <c r="A82" t="s">
         <v>28</v>
       </c>
@@ -3653,7 +3654,7 @@
         <v>21300</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" hidden="1">
       <c r="A83" t="s">
         <v>28</v>
       </c>
@@ -3673,7 +3674,7 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" hidden="1">
       <c r="A84" t="s">
         <v>28</v>
       </c>
@@ -3693,7 +3694,7 @@
         <v>20700</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" hidden="1">
       <c r="A85" t="s">
         <v>28</v>
       </c>
@@ -3713,7 +3714,7 @@
         <v>17300</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" hidden="1">
       <c r="A86" t="s">
         <v>28</v>
       </c>
@@ -3733,7 +3734,7 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" hidden="1">
       <c r="A87" t="s">
         <v>28</v>
       </c>
@@ -3753,7 +3754,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" hidden="1">
       <c r="A88" t="s">
         <v>28</v>
       </c>
@@ -3773,7 +3774,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" hidden="1">
       <c r="A89" t="s">
         <v>28</v>
       </c>
@@ -3793,7 +3794,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" hidden="1">
       <c r="A90" t="s">
         <v>28</v>
       </c>
@@ -3813,7 +3814,7 @@
         <v>11900</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" hidden="1">
       <c r="A91" t="s">
         <v>28</v>
       </c>
@@ -3833,7 +3834,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" hidden="1">
       <c r="A92" t="s">
         <v>28</v>
       </c>
@@ -3853,7 +3854,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" hidden="1">
       <c r="A93" t="s">
         <v>28</v>
       </c>
@@ -3873,7 +3874,7 @@
         <v>18400</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" hidden="1">
       <c r="A94" t="s">
         <v>28</v>
       </c>
@@ -3893,7 +3894,7 @@
         <v>28500</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" hidden="1">
       <c r="A95" t="s">
         <v>28</v>
       </c>
@@ -3913,7 +3914,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" hidden="1">
       <c r="A96" t="s">
         <v>28</v>
       </c>
@@ -3933,7 +3934,7 @@
         <v>7700</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" hidden="1">
       <c r="A97" t="s">
         <v>29</v>
       </c>
@@ -3953,7 +3954,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" hidden="1">
       <c r="A98" t="s">
         <v>29</v>
       </c>
@@ -3973,7 +3974,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" hidden="1">
       <c r="A99" t="s">
         <v>29</v>
       </c>
@@ -3993,7 +3994,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" hidden="1">
       <c r="A100" t="s">
         <v>29</v>
       </c>
@@ -4013,7 +4014,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" hidden="1">
       <c r="A101" t="s">
         <v>29</v>
       </c>
@@ -4033,7 +4034,7 @@
         <v>17600</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" hidden="1">
       <c r="A102" t="s">
         <v>29</v>
       </c>
@@ -4053,7 +4054,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" hidden="1">
       <c r="A103" t="s">
         <v>29</v>
       </c>
@@ -4073,7 +4074,7 @@
         <v>22300</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" hidden="1">
       <c r="A104" t="s">
         <v>29</v>
       </c>
@@ -4093,7 +4094,7 @@
         <v>14700</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" hidden="1">
       <c r="A105" t="s">
         <v>29</v>
       </c>
@@ -4113,7 +4114,7 @@
         <v>7800</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" hidden="1">
       <c r="A106" t="s">
         <v>29</v>
       </c>
@@ -4133,7 +4134,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" hidden="1">
       <c r="A107" t="s">
         <v>29</v>
       </c>
@@ -4153,7 +4154,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" hidden="1">
       <c r="A108" t="s">
         <v>29</v>
       </c>
@@ -4173,7 +4174,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" hidden="1">
       <c r="A109" t="s">
         <v>29</v>
       </c>
@@ -4193,7 +4194,7 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" hidden="1">
       <c r="A110" t="s">
         <v>29</v>
       </c>
@@ -4213,7 +4214,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" hidden="1">
       <c r="A111" t="s">
         <v>29</v>
       </c>
@@ -4233,7 +4234,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" hidden="1">
       <c r="A112" t="s">
         <v>29</v>
       </c>
@@ -4253,7 +4254,7 @@
         <v>11600</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" hidden="1">
       <c r="A113" t="s">
         <v>29</v>
       </c>
@@ -4273,7 +4274,7 @@
         <v>22700</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" hidden="1">
       <c r="A114" t="s">
         <v>29</v>
       </c>
@@ -4293,7 +4294,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" hidden="1">
       <c r="A115" t="s">
         <v>29</v>
       </c>
@@ -4313,7 +4314,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" hidden="1">
       <c r="A116" t="s">
         <v>75</v>
       </c>
@@ -4333,7 +4334,7 @@
         <v>23800</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" hidden="1">
       <c r="A117" t="s">
         <v>75</v>
       </c>
@@ -4353,7 +4354,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" hidden="1">
       <c r="A118" t="s">
         <v>75</v>
       </c>
@@ -4373,7 +4374,7 @@
         <v>12800</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" hidden="1">
       <c r="A119" t="s">
         <v>75</v>
       </c>
@@ -4393,7 +4394,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" hidden="1">
       <c r="A120" t="s">
         <v>75</v>
       </c>
@@ -4413,7 +4414,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" hidden="1">
       <c r="A121" t="s">
         <v>75</v>
       </c>
@@ -4433,7 +4434,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" hidden="1">
       <c r="A122" t="s">
         <v>75</v>
       </c>
@@ -4453,7 +4454,7 @@
         <v>10200</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" hidden="1">
       <c r="A123" t="s">
         <v>75</v>
       </c>
@@ -4473,7 +4474,7 @@
         <v>8700</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" hidden="1">
       <c r="A124" t="s">
         <v>75</v>
       </c>
@@ -4493,7 +4494,7 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" hidden="1">
       <c r="A125" t="s">
         <v>75</v>
       </c>
@@ -4513,7 +4514,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" hidden="1">
       <c r="A126" t="s">
         <v>75</v>
       </c>
@@ -4533,7 +4534,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" hidden="1">
       <c r="A127" t="s">
         <v>75</v>
       </c>
@@ -4553,7 +4554,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" hidden="1">
       <c r="A128" t="s">
         <v>75</v>
       </c>
@@ -4573,7 +4574,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" hidden="1">
       <c r="A129" t="s">
         <v>75</v>
       </c>
@@ -4593,7 +4594,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" hidden="1">
       <c r="A130" t="s">
         <v>75</v>
       </c>
@@ -4613,7 +4614,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" hidden="1">
       <c r="A131" t="s">
         <v>75</v>
       </c>
@@ -4633,7 +4634,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" hidden="1">
       <c r="A132" t="s">
         <v>75</v>
       </c>
@@ -4653,7 +4654,7 @@
         <v>18300</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" hidden="1">
       <c r="A133" t="s">
         <v>75</v>
       </c>
@@ -4673,7 +4674,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" hidden="1">
       <c r="A134" t="s">
         <v>75</v>
       </c>
@@ -4693,7 +4694,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" hidden="1">
       <c r="A135" t="s">
         <v>30</v>
       </c>
@@ -4713,7 +4714,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" hidden="1">
       <c r="A136" t="s">
         <v>30</v>
       </c>
@@ -4733,7 +4734,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" hidden="1">
       <c r="A137" t="s">
         <v>30</v>
       </c>
@@ -4753,7 +4754,7 @@
         <v>6100</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" hidden="1">
       <c r="A138" t="s">
         <v>30</v>
       </c>
@@ -4773,7 +4774,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" hidden="1">
       <c r="A139" t="s">
         <v>30</v>
       </c>
@@ -4793,7 +4794,7 @@
         <v>5900</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" hidden="1">
       <c r="A140" t="s">
         <v>30</v>
       </c>
@@ -4813,7 +4814,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" hidden="1">
       <c r="A141" t="s">
         <v>30</v>
       </c>
@@ -4833,7 +4834,7 @@
         <v>11600</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" hidden="1">
       <c r="A142" t="s">
         <v>30</v>
       </c>
@@ -4853,7 +4854,7 @@
         <v>5900</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" hidden="1">
       <c r="A143" t="s">
         <v>30</v>
       </c>
@@ -4873,7 +4874,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" hidden="1">
       <c r="A144" t="s">
         <v>30</v>
       </c>
@@ -4893,7 +4894,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" hidden="1">
       <c r="A145" t="s">
         <v>30</v>
       </c>
@@ -4913,7 +4914,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" hidden="1">
       <c r="A146" t="s">
         <v>30</v>
       </c>
@@ -4933,7 +4934,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" hidden="1">
       <c r="A147" t="s">
         <v>30</v>
       </c>
@@ -4953,7 +4954,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" hidden="1">
       <c r="A148" t="s">
         <v>30</v>
       </c>
@@ -4973,7 +4974,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" hidden="1">
       <c r="A149" t="s">
         <v>30</v>
       </c>
@@ -4993,7 +4994,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" hidden="1">
       <c r="A150" t="s">
         <v>30</v>
       </c>
@@ -5013,7 +5014,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" hidden="1">
       <c r="A151" t="s">
         <v>30</v>
       </c>
@@ -5033,7 +5034,7 @@
         <v>9300</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" hidden="1">
       <c r="A152" t="s">
         <v>30</v>
       </c>
@@ -5053,7 +5054,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" hidden="1">
       <c r="A153" t="s">
         <v>30</v>
       </c>
@@ -5073,7 +5074,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" hidden="1">
       <c r="A154" t="s">
         <v>31</v>
       </c>
@@ -5093,7 +5094,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" hidden="1">
       <c r="A155" t="s">
         <v>31</v>
       </c>
@@ -5113,7 +5114,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" hidden="1">
       <c r="A156" t="s">
         <v>31</v>
       </c>
@@ -5133,7 +5134,7 @@
         <v>53800</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" hidden="1">
       <c r="A157" t="s">
         <v>31</v>
       </c>
@@ -5153,7 +5154,7 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" hidden="1">
       <c r="A158" t="s">
         <v>31</v>
       </c>
@@ -5173,7 +5174,7 @@
         <v>64500</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" hidden="1">
       <c r="A159" t="s">
         <v>31</v>
       </c>
@@ -5193,7 +5194,7 @@
         <v>30500</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" hidden="1">
       <c r="A160" t="s">
         <v>31</v>
       </c>
@@ -5213,7 +5214,7 @@
         <v>82000</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" hidden="1">
       <c r="A161" t="s">
         <v>31</v>
       </c>
@@ -5233,7 +5234,7 @@
         <v>67400</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" hidden="1">
       <c r="A162" t="s">
         <v>31</v>
       </c>
@@ -5253,7 +5254,7 @@
         <v>51500</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" hidden="1">
       <c r="A163" t="s">
         <v>31</v>
       </c>
@@ -5273,7 +5274,7 @@
         <v>34600</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" hidden="1">
       <c r="A164" t="s">
         <v>31</v>
       </c>
@@ -5293,7 +5294,7 @@
         <v>65700</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" hidden="1">
       <c r="A165" t="s">
         <v>31</v>
       </c>
@@ -5313,7 +5314,7 @@
         <v>21600</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" hidden="1">
       <c r="A166" t="s">
         <v>31</v>
       </c>
@@ -5333,7 +5334,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" hidden="1">
       <c r="A167" t="s">
         <v>31</v>
       </c>
@@ -5353,7 +5354,7 @@
         <v>33700</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" hidden="1">
       <c r="A168" t="s">
         <v>31</v>
       </c>
@@ -5373,7 +5374,7 @@
         <v>46900</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" hidden="1">
       <c r="A169" t="s">
         <v>31</v>
       </c>
@@ -5393,7 +5394,7 @@
         <v>74900</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" hidden="1">
       <c r="A170" t="s">
         <v>31</v>
       </c>
@@ -5413,7 +5414,7 @@
         <v>96800</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" hidden="1">
       <c r="A171" t="s">
         <v>31</v>
       </c>
@@ -5433,7 +5434,7 @@
         <v>21600</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" hidden="1">
       <c r="A172" t="s">
         <v>31</v>
       </c>
@@ -5453,7 +5454,7 @@
         <v>35400</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" hidden="1">
       <c r="A173" t="s">
         <v>32</v>
       </c>
@@ -5473,7 +5474,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" hidden="1">
       <c r="A174" t="s">
         <v>32</v>
       </c>
@@ -5493,7 +5494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" hidden="1">
       <c r="A175" t="s">
         <v>32</v>
       </c>
@@ -5513,7 +5514,7 @@
         <v>50300</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" hidden="1">
       <c r="A176" t="s">
         <v>32</v>
       </c>
@@ -5533,7 +5534,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" hidden="1">
       <c r="A177" t="s">
         <v>32</v>
       </c>
@@ -5553,7 +5554,7 @@
         <v>53100</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" hidden="1">
       <c r="A178" t="s">
         <v>32</v>
       </c>
@@ -5573,7 +5574,7 @@
         <v>28600</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" hidden="1">
       <c r="A179" t="s">
         <v>32</v>
       </c>
@@ -5593,7 +5594,7 @@
         <v>66200</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" hidden="1">
       <c r="A180" t="s">
         <v>32</v>
       </c>
@@ -5613,7 +5614,7 @@
         <v>34700</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" hidden="1">
       <c r="A181" t="s">
         <v>32</v>
       </c>
@@ -5633,7 +5634,7 @@
         <v>38600</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" hidden="1">
       <c r="A182" t="s">
         <v>32</v>
       </c>
@@ -5653,7 +5654,7 @@
         <v>8800</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" hidden="1">
       <c r="A183" t="s">
         <v>32</v>
       </c>
@@ -5673,7 +5674,7 @@
         <v>30300</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" hidden="1">
       <c r="A184" t="s">
         <v>32</v>
       </c>
@@ -5693,7 +5694,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" hidden="1">
       <c r="A185" t="s">
         <v>32</v>
       </c>
@@ -5713,7 +5714,7 @@
         <v>37700</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" hidden="1">
       <c r="A186" t="s">
         <v>32</v>
       </c>
@@ -5733,7 +5734,7 @@
         <v>17600</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" hidden="1">
       <c r="A187" t="s">
         <v>32</v>
       </c>
@@ -5753,7 +5754,7 @@
         <v>29800</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" hidden="1">
       <c r="A188" t="s">
         <v>32</v>
       </c>
@@ -5773,7 +5774,7 @@
         <v>35800</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" hidden="1">
       <c r="A189" t="s">
         <v>32</v>
       </c>
@@ -5793,7 +5794,7 @@
         <v>61300</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" hidden="1">
       <c r="A190" t="s">
         <v>32</v>
       </c>
@@ -5813,7 +5814,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" hidden="1">
       <c r="A191" t="s">
         <v>32</v>
       </c>
@@ -5833,7 +5834,7 @@
         <v>22600</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" hidden="1">
       <c r="A192" t="s">
         <v>33</v>
       </c>
@@ -5853,7 +5854,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" hidden="1">
       <c r="A193" t="s">
         <v>33</v>
       </c>
@@ -5873,7 +5874,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" hidden="1">
       <c r="A194" t="s">
         <v>33</v>
       </c>
@@ -5893,7 +5894,7 @@
         <v>45800</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" hidden="1">
       <c r="A195" t="s">
         <v>33</v>
       </c>
@@ -5913,7 +5914,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" hidden="1">
       <c r="A196" t="s">
         <v>33</v>
       </c>
@@ -5933,7 +5934,7 @@
         <v>61000</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" hidden="1">
       <c r="A197" t="s">
         <v>33</v>
       </c>
@@ -5953,7 +5954,7 @@
         <v>31000</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" hidden="1">
       <c r="A198" t="s">
         <v>33</v>
       </c>
@@ -5973,7 +5974,7 @@
         <v>65900</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" hidden="1">
       <c r="A199" t="s">
         <v>33</v>
       </c>
@@ -5993,7 +5994,7 @@
         <v>40500</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" hidden="1">
       <c r="A200" t="s">
         <v>33</v>
       </c>
@@ -6013,7 +6014,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" hidden="1">
       <c r="A201" t="s">
         <v>33</v>
       </c>
@@ -6033,7 +6034,7 @@
         <v>26200</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" hidden="1">
       <c r="A202" t="s">
         <v>33</v>
       </c>
@@ -6053,7 +6054,7 @@
         <v>51300</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" hidden="1">
       <c r="A203" t="s">
         <v>33</v>
       </c>
@@ -6073,7 +6074,7 @@
         <v>20300</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" hidden="1">
       <c r="A204" t="s">
         <v>33</v>
       </c>
@@ -6093,7 +6094,7 @@
         <v>100700</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" hidden="1">
       <c r="A205" t="s">
         <v>33</v>
       </c>
@@ -6113,7 +6114,7 @@
         <v>25100</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" hidden="1">
       <c r="A206" t="s">
         <v>33</v>
       </c>
@@ -6133,7 +6134,7 @@
         <v>30900</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" hidden="1">
       <c r="A207" t="s">
         <v>33</v>
       </c>
@@ -6153,7 +6154,7 @@
         <v>67100</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" hidden="1">
       <c r="A208" t="s">
         <v>33</v>
       </c>
@@ -6173,7 +6174,7 @@
         <v>92100</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" hidden="1">
       <c r="A209" t="s">
         <v>33</v>
       </c>
@@ -6193,7 +6194,7 @@
         <v>12300</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" hidden="1">
       <c r="A210" t="s">
         <v>33</v>
       </c>
@@ -6213,7 +6214,7 @@
         <v>28100</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" hidden="1">
       <c r="A211" t="s">
         <v>34</v>
       </c>
@@ -6233,7 +6234,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" hidden="1">
       <c r="A212" t="s">
         <v>34</v>
       </c>
@@ -6253,7 +6254,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" hidden="1">
       <c r="A213" t="s">
         <v>34</v>
       </c>
@@ -6273,7 +6274,7 @@
         <v>37400</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" hidden="1">
       <c r="A214" t="s">
         <v>34</v>
       </c>
@@ -6293,7 +6294,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" hidden="1">
       <c r="A215" t="s">
         <v>34</v>
       </c>
@@ -6313,7 +6314,7 @@
         <v>29600</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" hidden="1">
       <c r="A216" t="s">
         <v>34</v>
       </c>
@@ -6333,7 +6334,7 @@
         <v>13100</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" hidden="1">
       <c r="A217" t="s">
         <v>34</v>
       </c>
@@ -6353,7 +6354,7 @@
         <v>33300</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" hidden="1">
       <c r="A218" t="s">
         <v>34</v>
       </c>
@@ -6373,7 +6374,7 @@
         <v>16600</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" hidden="1">
       <c r="A219" t="s">
         <v>34</v>
       </c>
@@ -6393,7 +6394,7 @@
         <v>26500</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" hidden="1">
       <c r="A220" t="s">
         <v>34</v>
       </c>
@@ -6413,7 +6414,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" hidden="1">
       <c r="A221" t="s">
         <v>34</v>
       </c>
@@ -6433,7 +6434,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" hidden="1">
       <c r="A222" t="s">
         <v>34</v>
       </c>
@@ -6453,7 +6454,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" hidden="1">
       <c r="A223" t="s">
         <v>34</v>
       </c>
@@ -6473,7 +6474,7 @@
         <v>14500</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" hidden="1">
       <c r="A224" t="s">
         <v>34</v>
       </c>
@@ -6493,7 +6494,7 @@
         <v>9300</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" hidden="1">
       <c r="A225" t="s">
         <v>34</v>
       </c>
@@ -6513,7 +6514,7 @@
         <v>14200</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" hidden="1">
       <c r="A226" t="s">
         <v>34</v>
       </c>
@@ -6533,7 +6534,7 @@
         <v>16700</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" hidden="1">
       <c r="A227" t="s">
         <v>34</v>
       </c>
@@ -6553,7 +6554,7 @@
         <v>31600</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" hidden="1">
       <c r="A228" t="s">
         <v>34</v>
       </c>
@@ -6573,7 +6574,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" hidden="1">
       <c r="A229" t="s">
         <v>34</v>
       </c>
@@ -6593,7 +6594,7 @@
         <v>15900</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6">
       <c r="A230" t="s">
         <v>35</v>
       </c>
@@ -6613,7 +6614,7 @@
         <v>11300</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6">
       <c r="A231" t="s">
         <v>35</v>
       </c>
@@ -6633,7 +6634,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6">
       <c r="A232" t="s">
         <v>35</v>
       </c>
@@ -6653,7 +6654,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6">
       <c r="A233" t="s">
         <v>35</v>
       </c>
@@ -6673,7 +6674,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6">
       <c r="A234" t="s">
         <v>35</v>
       </c>
@@ -6693,7 +6694,7 @@
         <v>8900</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6">
       <c r="A235" t="s">
         <v>35</v>
       </c>
@@ -6713,7 +6714,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6">
       <c r="A236" t="s">
         <v>35</v>
       </c>
@@ -6733,7 +6734,7 @@
         <v>7700</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6">
       <c r="A237" t="s">
         <v>35</v>
       </c>
@@ -6753,7 +6754,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6">
       <c r="A238" t="s">
         <v>35</v>
       </c>
@@ -6773,7 +6774,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6">
       <c r="A239" t="s">
         <v>35</v>
       </c>
@@ -6793,7 +6794,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6">
       <c r="A240" t="s">
         <v>35</v>
       </c>
@@ -6813,7 +6814,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6">
       <c r="A241" t="s">
         <v>35</v>
       </c>
@@ -6833,7 +6834,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6">
       <c r="A242" t="s">
         <v>35</v>
       </c>
@@ -6853,7 +6854,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6">
       <c r="A243" t="s">
         <v>35</v>
       </c>
@@ -6873,7 +6874,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6">
       <c r="A244" t="s">
         <v>35</v>
       </c>
@@ -6893,7 +6894,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6">
       <c r="A245" t="s">
         <v>35</v>
       </c>
@@ -6913,7 +6914,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6">
       <c r="A246" t="s">
         <v>35</v>
       </c>
@@ -6933,7 +6934,7 @@
         <v>11500</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6">
       <c r="A247" t="s">
         <v>35</v>
       </c>
@@ -6953,7 +6954,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6">
       <c r="A248" t="s">
         <v>35</v>
       </c>
@@ -6973,7 +6974,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6">
       <c r="A249" t="s">
         <v>37</v>
       </c>
@@ -6993,7 +6994,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6">
       <c r="A250" t="s">
         <v>37</v>
       </c>
@@ -7013,7 +7014,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6">
       <c r="A251" t="s">
         <v>37</v>
       </c>
@@ -7033,7 +7034,7 @@
         <v>9800</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6">
       <c r="A252" t="s">
         <v>37</v>
       </c>
@@ -7053,7 +7054,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6">
       <c r="A253" t="s">
         <v>37</v>
       </c>
@@ -7073,7 +7074,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6">
       <c r="A254" t="s">
         <v>37</v>
       </c>
@@ -7093,7 +7094,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6">
       <c r="A255" t="s">
         <v>37</v>
       </c>
@@ -7113,7 +7114,7 @@
         <v>16700</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6">
       <c r="A256" t="s">
         <v>37</v>
       </c>
@@ -7133,7 +7134,7 @@
         <v>7100</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6">
       <c r="A257" t="s">
         <v>37</v>
       </c>
@@ -7153,7 +7154,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6">
       <c r="A258" t="s">
         <v>37</v>
       </c>
@@ -7173,7 +7174,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6">
       <c r="A259" t="s">
         <v>37</v>
       </c>
@@ -7193,7 +7194,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6">
       <c r="A260" t="s">
         <v>37</v>
       </c>
@@ -7213,7 +7214,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6">
       <c r="A261" t="s">
         <v>37</v>
       </c>
@@ -7233,7 +7234,7 @@
         <v>8200</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6">
       <c r="A262" t="s">
         <v>37</v>
       </c>
@@ -7253,7 +7254,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6">
       <c r="A263" t="s">
         <v>37</v>
       </c>
@@ -7273,7 +7274,7 @@
         <v>9700</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6">
       <c r="A264" t="s">
         <v>37</v>
       </c>
@@ -7293,7 +7294,7 @@
         <v>13700</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6">
       <c r="A265" t="s">
         <v>37</v>
       </c>
@@ -7313,7 +7314,7 @@
         <v>15800</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6">
       <c r="A266" t="s">
         <v>37</v>
       </c>
@@ -7333,7 +7334,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6">
       <c r="A267" t="s">
         <v>37</v>
       </c>
@@ -7353,7 +7354,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6">
       <c r="A268" t="s">
         <v>38</v>
       </c>
@@ -7373,7 +7374,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6">
       <c r="A269" t="s">
         <v>38</v>
       </c>
@@ -7393,7 +7394,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6">
       <c r="A270" t="s">
         <v>38</v>
       </c>
@@ -7413,7 +7414,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6">
       <c r="A271" t="s">
         <v>38</v>
       </c>
@@ -7433,7 +7434,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6">
       <c r="A272" t="s">
         <v>38</v>
       </c>
@@ -7453,7 +7454,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6">
       <c r="A273" t="s">
         <v>38</v>
       </c>
@@ -7473,7 +7474,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6">
       <c r="A274" t="s">
         <v>38</v>
       </c>
@@ -7493,7 +7494,7 @@
         <v>8700</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6">
       <c r="A275" t="s">
         <v>38</v>
       </c>
@@ -7513,7 +7514,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6">
       <c r="A276" t="s">
         <v>38</v>
       </c>
@@ -7533,7 +7534,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6">
       <c r="A277" t="s">
         <v>38</v>
       </c>
@@ -7553,7 +7554,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6">
       <c r="A278" t="s">
         <v>38</v>
       </c>
@@ -7573,7 +7574,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6">
       <c r="A279" t="s">
         <v>38</v>
       </c>
@@ -7593,7 +7594,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6">
       <c r="A280" t="s">
         <v>38</v>
       </c>
@@ -7613,7 +7614,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6">
       <c r="A281" t="s">
         <v>38</v>
       </c>
@@ -7633,7 +7634,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6">
       <c r="A282" t="s">
         <v>38</v>
       </c>
@@ -7653,7 +7654,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6">
       <c r="A283" t="s">
         <v>38</v>
       </c>
@@ -7673,7 +7674,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6">
       <c r="A284" t="s">
         <v>38</v>
       </c>
@@ -7693,7 +7694,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6">
       <c r="A285" t="s">
         <v>38</v>
       </c>
@@ -7713,7 +7714,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6">
       <c r="A286" t="s">
         <v>38</v>
       </c>
@@ -7733,7 +7734,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6">
       <c r="A287" t="s">
         <v>39</v>
       </c>
@@ -7753,7 +7754,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6">
       <c r="A288" t="s">
         <v>39</v>
       </c>
@@ -7773,7 +7774,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6">
       <c r="A289" t="s">
         <v>39</v>
       </c>
@@ -7793,7 +7794,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6">
       <c r="A290" t="s">
         <v>39</v>
       </c>
@@ -7813,7 +7814,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6">
       <c r="A291" t="s">
         <v>39</v>
       </c>
@@ -7833,7 +7834,7 @@
         <v>10700</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6">
       <c r="A292" t="s">
         <v>39</v>
       </c>
@@ -7853,7 +7854,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6">
       <c r="A293" t="s">
         <v>39</v>
       </c>
@@ -7873,7 +7874,7 @@
         <v>14600</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6">
       <c r="A294" t="s">
         <v>39</v>
       </c>
@@ -7893,7 +7894,7 @@
         <v>9700</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6">
       <c r="A295" t="s">
         <v>39</v>
       </c>
@@ -7913,7 +7914,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6">
       <c r="A296" t="s">
         <v>39</v>
       </c>
@@ -7933,7 +7934,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6">
       <c r="A297" t="s">
         <v>39</v>
       </c>
@@ -7953,7 +7954,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6">
       <c r="A298" t="s">
         <v>39</v>
       </c>
@@ -7973,7 +7974,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6">
       <c r="A299" t="s">
         <v>39</v>
       </c>
@@ -7993,7 +7994,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6">
       <c r="A300" t="s">
         <v>39</v>
       </c>
@@ -8013,7 +8014,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6">
       <c r="A301" t="s">
         <v>39</v>
       </c>
@@ -8033,7 +8034,7 @@
         <v>8100</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6">
       <c r="A302" t="s">
         <v>39</v>
       </c>
@@ -8053,7 +8054,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6">
       <c r="A303" t="s">
         <v>39</v>
       </c>
@@ -8073,7 +8074,7 @@
         <v>14400</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6">
       <c r="A304" t="s">
         <v>39</v>
       </c>
@@ -8093,7 +8094,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6">
       <c r="A305" t="s">
         <v>39</v>
       </c>
@@ -8113,7 +8114,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6">
       <c r="A306" t="s">
         <v>40</v>
       </c>
@@ -8133,7 +8134,7 @@
         <v>11800</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6">
       <c r="A307" t="s">
         <v>40</v>
       </c>
@@ -8153,7 +8154,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6">
       <c r="A308" t="s">
         <v>40</v>
       </c>
@@ -8173,7 +8174,7 @@
         <v>16700</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6">
       <c r="A309" t="s">
         <v>40</v>
       </c>
@@ -8193,7 +8194,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6">
       <c r="A310" t="s">
         <v>40</v>
       </c>
@@ -8213,7 +8214,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6">
       <c r="A311" t="s">
         <v>40</v>
       </c>
@@ -8233,7 +8234,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6">
       <c r="A312" t="s">
         <v>40</v>
       </c>
@@ -8253,7 +8254,7 @@
         <v>16100</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6">
       <c r="A313" t="s">
         <v>40</v>
       </c>
@@ -8273,7 +8274,7 @@
         <v>12900</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6">
       <c r="A314" t="s">
         <v>40</v>
       </c>
@@ -8293,7 +8294,7 @@
         <v>7400</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6">
       <c r="A315" t="s">
         <v>40</v>
       </c>
@@ -8313,7 +8314,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6">
       <c r="A316" t="s">
         <v>40</v>
       </c>
@@ -8333,7 +8334,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6">
       <c r="A317" t="s">
         <v>40</v>
       </c>
@@ -8353,7 +8354,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6">
       <c r="A318" t="s">
         <v>40</v>
       </c>
@@ -8373,7 +8374,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6">
       <c r="A319" t="s">
         <v>40</v>
       </c>
@@ -8393,7 +8394,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6">
       <c r="A320" t="s">
         <v>40</v>
       </c>
@@ -8413,7 +8414,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6">
       <c r="A321" t="s">
         <v>40</v>
       </c>
@@ -8433,7 +8434,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6">
       <c r="A322" t="s">
         <v>40</v>
       </c>
@@ -8453,7 +8454,7 @@
         <v>19900</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6">
       <c r="A323" t="s">
         <v>40</v>
       </c>
@@ -8473,7 +8474,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6">
       <c r="A324" t="s">
         <v>40</v>
       </c>
@@ -8493,7 +8494,7 @@
         <v>7100</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6">
       <c r="A325" t="s">
         <v>41</v>
       </c>
@@ -8513,7 +8514,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6">
       <c r="A326" t="s">
         <v>41</v>
       </c>
@@ -8533,7 +8534,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6">
       <c r="A327" t="s">
         <v>41</v>
       </c>
@@ -8553,7 +8554,7 @@
         <v>52200</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6">
       <c r="A328" t="s">
         <v>41</v>
       </c>
@@ -8573,7 +8574,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6">
       <c r="A329" t="s">
         <v>41</v>
       </c>
@@ -8593,7 +8594,7 @@
         <v>38100</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6">
       <c r="A330" t="s">
         <v>41</v>
       </c>
@@ -8613,7 +8614,7 @@
         <v>26200</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6">
       <c r="A331" t="s">
         <v>41</v>
       </c>
@@ -8633,7 +8634,7 @@
         <v>75900</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6">
       <c r="A332" t="s">
         <v>41</v>
       </c>
@@ -8653,7 +8654,7 @@
         <v>56200</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6">
       <c r="A333" t="s">
         <v>41</v>
       </c>
@@ -8673,7 +8674,7 @@
         <v>23700</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6">
       <c r="A334" t="s">
         <v>41</v>
       </c>
@@ -8693,7 +8694,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6">
       <c r="A335" t="s">
         <v>41</v>
       </c>
@@ -8713,7 +8714,7 @@
         <v>46900</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6">
       <c r="A336" t="s">
         <v>41</v>
       </c>
@@ -8733,7 +8734,7 @@
         <v>20700</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6">
       <c r="A337" t="s">
         <v>41</v>
       </c>
@@ -8753,7 +8754,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6">
       <c r="A338" t="s">
         <v>41</v>
       </c>
@@ -8773,7 +8774,7 @@
         <v>27800</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6">
       <c r="A339" t="s">
         <v>41</v>
       </c>
@@ -8793,7 +8794,7 @@
         <v>37500</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6">
       <c r="A340" t="s">
         <v>41</v>
       </c>
@@ -8813,7 +8814,7 @@
         <v>66300</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6">
       <c r="A341" t="s">
         <v>41</v>
       </c>
@@ -8833,7 +8834,7 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6">
       <c r="A342" t="s">
         <v>41</v>
       </c>
@@ -8853,7 +8854,7 @@
         <v>22200</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6">
       <c r="A343" t="s">
         <v>41</v>
       </c>
@@ -8873,7 +8874,7 @@
         <v>19400</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6">
       <c r="A344" t="s">
         <v>42</v>
       </c>
@@ -8893,7 +8894,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6">
       <c r="A345" t="s">
         <v>42</v>
       </c>
@@ -8913,7 +8914,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6">
       <c r="A346" t="s">
         <v>42</v>
       </c>
@@ -8933,7 +8934,7 @@
         <v>53800</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6">
       <c r="A347" t="s">
         <v>42</v>
       </c>
@@ -8953,7 +8954,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6">
       <c r="A348" t="s">
         <v>42</v>
       </c>
@@ -8973,7 +8974,7 @@
         <v>55600</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6">
       <c r="A349" t="s">
         <v>42</v>
       </c>
@@ -8993,7 +8994,7 @@
         <v>24900</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6">
       <c r="A350" t="s">
         <v>42</v>
       </c>
@@ -9013,7 +9014,7 @@
         <v>61900</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6">
       <c r="A351" t="s">
         <v>42</v>
       </c>
@@ -9033,7 +9034,7 @@
         <v>30800</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6">
       <c r="A352" t="s">
         <v>42</v>
       </c>
@@ -9053,7 +9054,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6">
       <c r="A353" t="s">
         <v>42</v>
       </c>
@@ -9073,7 +9074,7 @@
         <v>12500</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6">
       <c r="A354" t="s">
         <v>42</v>
       </c>
@@ -9093,7 +9094,7 @@
         <v>16700</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6">
       <c r="A355" t="s">
         <v>42</v>
       </c>
@@ -9113,7 +9114,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6">
       <c r="A356" t="s">
         <v>42</v>
       </c>
@@ -9133,7 +9134,7 @@
         <v>40200</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6">
       <c r="A357" t="s">
         <v>42</v>
       </c>
@@ -9153,7 +9154,7 @@
         <v>13100</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6">
       <c r="A358" t="s">
         <v>42</v>
       </c>
@@ -9173,7 +9174,7 @@
         <v>28300</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6">
       <c r="A359" t="s">
         <v>42</v>
       </c>
@@ -9193,7 +9194,7 @@
         <v>46500</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6">
       <c r="A360" t="s">
         <v>42</v>
       </c>
@@ -9213,7 +9214,7 @@
         <v>57800</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6">
       <c r="A361" t="s">
         <v>42</v>
       </c>
@@ -9233,7 +9234,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6">
       <c r="A362" t="s">
         <v>42</v>
       </c>
@@ -9253,7 +9254,7 @@
         <v>23100</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6">
       <c r="A363" t="s">
         <v>43</v>
       </c>
@@ -9273,7 +9274,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6">
       <c r="A364" t="s">
         <v>43</v>
       </c>
@@ -9293,7 +9294,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6">
       <c r="A365" t="s">
         <v>43</v>
       </c>
@@ -9313,7 +9314,7 @@
         <v>16400</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6">
       <c r="A366" t="s">
         <v>43</v>
       </c>
@@ -9333,7 +9334,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6">
       <c r="A367" t="s">
         <v>43</v>
       </c>
@@ -9353,7 +9354,7 @@
         <v>13600</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6">
       <c r="A368" t="s">
         <v>43</v>
       </c>
@@ -9373,7 +9374,7 @@
         <v>8200</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6">
       <c r="A369" t="s">
         <v>43</v>
       </c>
@@ -9393,7 +9394,7 @@
         <v>20300</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6">
       <c r="A370" t="s">
         <v>43</v>
       </c>
@@ -9413,7 +9414,7 @@
         <v>10600</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6">
       <c r="A371" t="s">
         <v>43</v>
       </c>
@@ -9433,7 +9434,7 @@
         <v>15600</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6">
       <c r="A372" t="s">
         <v>43</v>
       </c>
@@ -9453,7 +9454,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6">
       <c r="A373" t="s">
         <v>43</v>
       </c>
@@ -9473,7 +9474,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6">
       <c r="A374" t="s">
         <v>43</v>
       </c>
@@ -9493,7 +9494,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6">
       <c r="A375" t="s">
         <v>43</v>
       </c>
@@ -9513,7 +9514,7 @@
         <v>12900</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6">
       <c r="A376" t="s">
         <v>43</v>
       </c>
@@ -9533,7 +9534,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6">
       <c r="A377" t="s">
         <v>43</v>
       </c>
@@ -9553,7 +9554,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6">
       <c r="A378" t="s">
         <v>43</v>
       </c>
@@ -9573,7 +9574,7 @@
         <v>12300</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6">
       <c r="A379" t="s">
         <v>43</v>
       </c>
@@ -9593,7 +9594,7 @@
         <v>17300</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6">
       <c r="A380" t="s">
         <v>43</v>
       </c>
@@ -9613,7 +9614,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6">
       <c r="A381" t="s">
         <v>43</v>
       </c>
@@ -9633,7 +9634,7 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6">
       <c r="A382" t="s">
         <v>44</v>
       </c>
@@ -9653,7 +9654,7 @@
         <v>10600</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6">
       <c r="A383" t="s">
         <v>44</v>
       </c>
@@ -9673,7 +9674,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6">
       <c r="A384" t="s">
         <v>44</v>
       </c>
@@ -9693,7 +9694,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6">
       <c r="A385" t="s">
         <v>44</v>
       </c>
@@ -9713,7 +9714,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6">
       <c r="A386" t="s">
         <v>44</v>
       </c>
@@ -9733,7 +9734,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6">
       <c r="A387" t="s">
         <v>44</v>
       </c>
@@ -9753,7 +9754,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6">
       <c r="A388" t="s">
         <v>44</v>
       </c>
@@ -9773,7 +9774,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6">
       <c r="A389" t="s">
         <v>44</v>
       </c>
@@ -9793,7 +9794,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6">
       <c r="A390" t="s">
         <v>44</v>
       </c>
@@ -9813,7 +9814,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6">
       <c r="A391" t="s">
         <v>44</v>
       </c>
@@ -9833,7 +9834,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6">
       <c r="A392" t="s">
         <v>44</v>
       </c>
@@ -9853,7 +9854,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6">
       <c r="A393" t="s">
         <v>44</v>
       </c>
@@ -9873,7 +9874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6">
       <c r="A394" t="s">
         <v>44</v>
       </c>
@@ -9893,7 +9894,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6">
       <c r="A395" t="s">
         <v>44</v>
       </c>
@@ -9913,7 +9914,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6">
       <c r="A396" t="s">
         <v>44</v>
       </c>
@@ -9933,7 +9934,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6">
       <c r="A397" t="s">
         <v>44</v>
       </c>
@@ -9953,7 +9954,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6">
       <c r="A398" t="s">
         <v>44</v>
       </c>
@@ -9973,7 +9974,7 @@
         <v>8100</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6">
       <c r="A399" t="s">
         <v>44</v>
       </c>
@@ -9993,7 +9994,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6">
       <c r="A400" t="s">
         <v>44</v>
       </c>
@@ -10013,7 +10014,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6">
       <c r="A401" t="s">
         <v>45</v>
       </c>
@@ -10033,7 +10034,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6">
       <c r="A402" t="s">
         <v>45</v>
       </c>
@@ -10053,7 +10054,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6">
       <c r="A403" t="s">
         <v>45</v>
       </c>
@@ -10073,7 +10074,7 @@
         <v>69200</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6">
       <c r="A404" t="s">
         <v>45</v>
       </c>
@@ -10093,7 +10094,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6">
       <c r="A405" t="s">
         <v>45</v>
       </c>
@@ -10113,7 +10114,7 @@
         <v>49900</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6">
       <c r="A406" t="s">
         <v>45</v>
       </c>
@@ -10133,7 +10134,7 @@
         <v>23200</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6">
       <c r="A407" t="s">
         <v>45</v>
       </c>
@@ -10153,7 +10154,7 @@
         <v>57400</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6">
       <c r="A408" t="s">
         <v>45</v>
       </c>
@@ -10173,7 +10174,7 @@
         <v>31300</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6">
       <c r="A409" t="s">
         <v>45</v>
       </c>
@@ -10193,7 +10194,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6">
       <c r="A410" t="s">
         <v>45</v>
       </c>
@@ -10213,7 +10214,7 @@
         <v>12100</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6">
       <c r="A411" t="s">
         <v>45</v>
       </c>
@@ -10233,7 +10234,7 @@
         <v>15100</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6">
       <c r="A412" t="s">
         <v>45</v>
       </c>
@@ -10253,7 +10254,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6">
       <c r="A413" t="s">
         <v>45</v>
       </c>
@@ -10273,7 +10274,7 @@
         <v>29400</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6">
       <c r="A414" t="s">
         <v>45</v>
       </c>
@@ -10293,7 +10294,7 @@
         <v>18600</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6">
       <c r="A415" t="s">
         <v>45</v>
       </c>
@@ -10313,7 +10314,7 @@
         <v>17100</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6">
       <c r="A416" t="s">
         <v>45</v>
       </c>
@@ -10333,7 +10334,7 @@
         <v>33800</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6">
       <c r="A417" t="s">
         <v>45</v>
       </c>
@@ -10353,7 +10354,7 @@
         <v>61000</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6">
       <c r="A418" t="s">
         <v>45</v>
       </c>
@@ -10373,7 +10374,7 @@
         <v>8700</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6">
       <c r="A419" t="s">
         <v>45</v>
       </c>
@@ -10393,7 +10394,7 @@
         <v>21400</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6">
       <c r="A420" t="s">
         <v>46</v>
       </c>
@@ -10413,7 +10414,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6">
       <c r="A421" t="s">
         <v>46</v>
       </c>
@@ -10433,7 +10434,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6">
       <c r="A422" t="s">
         <v>46</v>
       </c>
@@ -10453,7 +10454,7 @@
         <v>36800</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6">
       <c r="A423" t="s">
         <v>46</v>
       </c>
@@ -10473,7 +10474,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6">
       <c r="A424" t="s">
         <v>46</v>
       </c>
@@ -10493,7 +10494,7 @@
         <v>27300</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6">
       <c r="A425" t="s">
         <v>46</v>
       </c>
@@ -10513,7 +10514,7 @@
         <v>11900</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6">
       <c r="A426" t="s">
         <v>46</v>
       </c>
@@ -10533,7 +10534,7 @@
         <v>39900</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6">
       <c r="A427" t="s">
         <v>46</v>
       </c>
@@ -10553,7 +10554,7 @@
         <v>23500</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6">
       <c r="A428" t="s">
         <v>46</v>
       </c>
@@ -10573,7 +10574,7 @@
         <v>39400</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6">
       <c r="A429" t="s">
         <v>46</v>
       </c>
@@ -10593,7 +10594,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6">
       <c r="A430" t="s">
         <v>46</v>
       </c>
@@ -10613,7 +10614,7 @@
         <v>17400</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6">
       <c r="A431" t="s">
         <v>46</v>
       </c>
@@ -10633,7 +10634,7 @@
         <v>6100</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6">
       <c r="A432" t="s">
         <v>46</v>
       </c>
@@ -10653,7 +10654,7 @@
         <v>26900</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6">
       <c r="A433" t="s">
         <v>46</v>
       </c>
@@ -10673,7 +10674,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6">
       <c r="A434" t="s">
         <v>46</v>
       </c>
@@ -10693,7 +10694,7 @@
         <v>20800</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6">
       <c r="A435" t="s">
         <v>46</v>
       </c>
@@ -10713,7 +10714,7 @@
         <v>26200</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6">
       <c r="A436" t="s">
         <v>46</v>
       </c>
@@ -10733,7 +10734,7 @@
         <v>35600</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6">
       <c r="A437" t="s">
         <v>46</v>
       </c>
@@ -10753,7 +10754,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6">
       <c r="A438" t="s">
         <v>46</v>
       </c>
@@ -10773,7 +10774,7 @@
         <v>14500</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6">
       <c r="A439" t="s">
         <v>47</v>
       </c>
@@ -10793,7 +10794,7 @@
         <v>12500</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6">
       <c r="A440" t="s">
         <v>47</v>
       </c>
@@ -10813,7 +10814,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6">
       <c r="A441" t="s">
         <v>47</v>
       </c>
@@ -10833,7 +10834,7 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6">
       <c r="A442" t="s">
         <v>47</v>
       </c>
@@ -10853,7 +10854,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6">
       <c r="A443" t="s">
         <v>47</v>
       </c>
@@ -10873,7 +10874,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6">
       <c r="A444" t="s">
         <v>47</v>
       </c>
@@ -10893,7 +10894,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6">
       <c r="A445" t="s">
         <v>47</v>
       </c>
@@ -10913,7 +10914,7 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6">
       <c r="A446" t="s">
         <v>47</v>
       </c>
@@ -10933,7 +10934,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6">
       <c r="A447" t="s">
         <v>47</v>
       </c>
@@ -10953,7 +10954,7 @@
         <v>6100</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6">
       <c r="A448" t="s">
         <v>47</v>
       </c>
@@ -10973,7 +10974,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6">
       <c r="A449" t="s">
         <v>47</v>
       </c>
@@ -10993,7 +10994,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6">
       <c r="A450" t="s">
         <v>47</v>
       </c>
@@ -11013,7 +11014,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6">
       <c r="A451" t="s">
         <v>47</v>
       </c>
@@ -11033,7 +11034,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6">
       <c r="A452" t="s">
         <v>47</v>
       </c>
@@ -11053,7 +11054,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6">
       <c r="A453" t="s">
         <v>47</v>
       </c>
@@ -11073,7 +11074,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6">
       <c r="A454" t="s">
         <v>47</v>
       </c>
@@ -11093,7 +11094,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6">
       <c r="A455" t="s">
         <v>47</v>
       </c>
@@ -11113,7 +11114,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6">
       <c r="A456" t="s">
         <v>47</v>
       </c>
@@ -11133,7 +11134,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6">
       <c r="A457" t="s">
         <v>47</v>
       </c>
@@ -11153,7 +11154,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" hidden="1">
       <c r="A458" t="s">
         <v>48</v>
       </c>
@@ -11173,7 +11174,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" hidden="1">
       <c r="A459" t="s">
         <v>48</v>
       </c>
@@ -11193,7 +11194,7 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" hidden="1">
       <c r="A460" t="s">
         <v>48</v>
       </c>
@@ -11213,7 +11214,7 @@
         <v>41100</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" hidden="1">
       <c r="A461" t="s">
         <v>48</v>
       </c>
@@ -11233,7 +11234,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" hidden="1">
       <c r="A462" t="s">
         <v>48</v>
       </c>
@@ -11253,7 +11254,7 @@
         <v>42500</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" hidden="1">
       <c r="A463" t="s">
         <v>48</v>
       </c>
@@ -11273,7 +11274,7 @@
         <v>16300</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" hidden="1">
       <c r="A464" t="s">
         <v>48</v>
       </c>
@@ -11293,7 +11294,7 @@
         <v>45500</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" hidden="1">
       <c r="A465" t="s">
         <v>48</v>
       </c>
@@ -11313,7 +11314,7 @@
         <v>29800</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" hidden="1">
       <c r="A466" t="s">
         <v>48</v>
       </c>
@@ -11333,7 +11334,7 @@
         <v>28700</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" hidden="1">
       <c r="A467" t="s">
         <v>48</v>
       </c>
@@ -11353,7 +11354,7 @@
         <v>7800</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" hidden="1">
       <c r="A468" t="s">
         <v>48</v>
       </c>
@@ -11373,7 +11374,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" hidden="1">
       <c r="A469" t="s">
         <v>48</v>
       </c>
@@ -11393,7 +11394,7 @@
         <v>8800</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" hidden="1">
       <c r="A470" t="s">
         <v>48</v>
       </c>
@@ -11413,7 +11414,7 @@
         <v>34700</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" hidden="1">
       <c r="A471" t="s">
         <v>48</v>
       </c>
@@ -11433,7 +11434,7 @@
         <v>14400</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" hidden="1">
       <c r="A472" t="s">
         <v>48</v>
       </c>
@@ -11453,7 +11454,7 @@
         <v>27100</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" hidden="1">
       <c r="A473" t="s">
         <v>48</v>
       </c>
@@ -11473,7 +11474,7 @@
         <v>30100</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" hidden="1">
       <c r="A474" t="s">
         <v>48</v>
       </c>
@@ -11493,7 +11494,7 @@
         <v>58300</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" hidden="1">
       <c r="A475" t="s">
         <v>48</v>
       </c>
@@ -11513,7 +11514,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" hidden="1">
       <c r="A476" t="s">
         <v>48</v>
       </c>
@@ -11533,7 +11534,7 @@
         <v>18800</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" hidden="1">
       <c r="A477" t="s">
         <v>50</v>
       </c>
@@ -11553,7 +11554,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" hidden="1">
       <c r="A478" t="s">
         <v>50</v>
       </c>
@@ -11573,7 +11574,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" hidden="1">
       <c r="A479" t="s">
         <v>50</v>
       </c>
@@ -11593,7 +11594,7 @@
         <v>6100</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" hidden="1">
       <c r="A480" t="s">
         <v>50</v>
       </c>
@@ -11613,7 +11614,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" hidden="1">
       <c r="A481" t="s">
         <v>50</v>
       </c>
@@ -11633,7 +11634,7 @@
         <v>10400</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" hidden="1">
       <c r="A482" t="s">
         <v>50</v>
       </c>
@@ -11653,7 +11654,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" hidden="1">
       <c r="A483" t="s">
         <v>50</v>
       </c>
@@ -11673,7 +11674,7 @@
         <v>12400</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" hidden="1">
       <c r="A484" t="s">
         <v>50</v>
       </c>
@@ -11693,7 +11694,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" hidden="1">
       <c r="A485" t="s">
         <v>50</v>
       </c>
@@ -11713,7 +11714,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" hidden="1">
       <c r="A486" t="s">
         <v>50</v>
       </c>
@@ -11733,7 +11734,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" hidden="1">
       <c r="A487" t="s">
         <v>50</v>
       </c>
@@ -11753,7 +11754,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" hidden="1">
       <c r="A488" t="s">
         <v>50</v>
       </c>
@@ -11773,7 +11774,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" hidden="1">
       <c r="A489" t="s">
         <v>50</v>
       </c>
@@ -11793,7 +11794,7 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" hidden="1">
       <c r="A490" t="s">
         <v>50</v>
       </c>
@@ -11813,7 +11814,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" hidden="1">
       <c r="A491" t="s">
         <v>50</v>
       </c>
@@ -11833,7 +11834,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" hidden="1">
       <c r="A492" t="s">
         <v>50</v>
       </c>
@@ -11853,7 +11854,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" hidden="1">
       <c r="A493" t="s">
         <v>50</v>
       </c>
@@ -11873,7 +11874,7 @@
         <v>13100</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" hidden="1">
       <c r="A494" t="s">
         <v>50</v>
       </c>
@@ -11893,7 +11894,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" hidden="1">
       <c r="A495" t="s">
         <v>50</v>
       </c>
@@ -11913,7 +11914,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" hidden="1">
       <c r="A496" t="s">
         <v>51</v>
       </c>
@@ -11933,7 +11934,7 @@
         <v>9700</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" hidden="1">
       <c r="A497" t="s">
         <v>51</v>
       </c>
@@ -11953,7 +11954,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" hidden="1">
       <c r="A498" t="s">
         <v>51</v>
       </c>
@@ -11973,7 +11974,7 @@
         <v>12100</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" hidden="1">
       <c r="A499" t="s">
         <v>51</v>
       </c>
@@ -11993,7 +11994,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" hidden="1">
       <c r="A500" t="s">
         <v>51</v>
       </c>
@@ -12013,7 +12014,7 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" hidden="1">
       <c r="A501" t="s">
         <v>51</v>
       </c>
@@ -12033,7 +12034,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" hidden="1">
       <c r="A502" t="s">
         <v>51</v>
       </c>
@@ -12053,7 +12054,7 @@
         <v>14100</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" hidden="1">
       <c r="A503" t="s">
         <v>51</v>
       </c>
@@ -12073,7 +12074,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" hidden="1">
       <c r="A504" t="s">
         <v>51</v>
       </c>
@@ -12093,7 +12094,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" hidden="1">
       <c r="A505" t="s">
         <v>51</v>
       </c>
@@ -12113,7 +12114,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" hidden="1">
       <c r="A506" t="s">
         <v>51</v>
       </c>
@@ -12133,7 +12134,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" hidden="1">
       <c r="A507" t="s">
         <v>51</v>
       </c>
@@ -12153,7 +12154,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" hidden="1">
       <c r="A508" t="s">
         <v>51</v>
       </c>
@@ -12173,7 +12174,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" hidden="1">
       <c r="A509" t="s">
         <v>51</v>
       </c>
@@ -12193,7 +12194,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" hidden="1">
       <c r="A510" t="s">
         <v>51</v>
       </c>
@@ -12213,7 +12214,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" hidden="1">
       <c r="A511" t="s">
         <v>51</v>
       </c>
@@ -12233,7 +12234,7 @@
         <v>11600</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" hidden="1">
       <c r="A512" t="s">
         <v>51</v>
       </c>
@@ -12253,7 +12254,7 @@
         <v>13600</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" hidden="1">
       <c r="A513" t="s">
         <v>51</v>
       </c>
@@ -12273,7 +12274,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" hidden="1">
       <c r="A514" t="s">
         <v>51</v>
       </c>
@@ -12293,7 +12294,7 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" hidden="1">
       <c r="A515" t="s">
         <v>52</v>
       </c>
@@ -12313,7 +12314,7 @@
         <v>7400</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6" hidden="1">
       <c r="A516" t="s">
         <v>52</v>
       </c>
@@ -12333,7 +12334,7 @@
         <v>8900</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" hidden="1">
       <c r="A517" t="s">
         <v>52</v>
       </c>
@@ -12353,7 +12354,7 @@
         <v>8800</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" hidden="1">
       <c r="A518" t="s">
         <v>52</v>
       </c>
@@ -12373,7 +12374,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" hidden="1">
       <c r="A519" t="s">
         <v>52</v>
       </c>
@@ -12393,7 +12394,7 @@
         <v>13400</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" hidden="1">
       <c r="A520" t="s">
         <v>52</v>
       </c>
@@ -12413,7 +12414,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" hidden="1">
       <c r="A521" t="s">
         <v>52</v>
       </c>
@@ -12433,7 +12434,7 @@
         <v>11500</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" hidden="1">
       <c r="A522" t="s">
         <v>52</v>
       </c>
@@ -12453,7 +12454,7 @@
         <v>9300</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" hidden="1">
       <c r="A523" t="s">
         <v>52</v>
       </c>
@@ -12473,7 +12474,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" hidden="1">
       <c r="A524" t="s">
         <v>52</v>
       </c>
@@ -12493,7 +12494,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6" hidden="1">
       <c r="A525" t="s">
         <v>52</v>
       </c>
@@ -12513,7 +12514,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" hidden="1">
       <c r="A526" t="s">
         <v>52</v>
       </c>
@@ -12533,7 +12534,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" hidden="1">
       <c r="A527" t="s">
         <v>52</v>
       </c>
@@ -12553,7 +12554,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6" hidden="1">
       <c r="A528" t="s">
         <v>52</v>
       </c>
@@ -12573,7 +12574,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6" hidden="1">
       <c r="A529" t="s">
         <v>52</v>
       </c>
@@ -12593,7 +12594,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:6" hidden="1">
       <c r="A530" t="s">
         <v>52</v>
       </c>
@@ -12613,7 +12614,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:6" hidden="1">
       <c r="A531" t="s">
         <v>52</v>
       </c>
@@ -12633,7 +12634,7 @@
         <v>12100</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:6" hidden="1">
       <c r="A532" t="s">
         <v>52</v>
       </c>
@@ -12653,7 +12654,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:6" hidden="1">
       <c r="A533" t="s">
         <v>52</v>
       </c>
@@ -12673,7 +12674,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:6" hidden="1">
       <c r="A534" t="s">
         <v>53</v>
       </c>
@@ -12693,7 +12694,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:6" hidden="1">
       <c r="A535" t="s">
         <v>53</v>
       </c>
@@ -12713,7 +12714,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:6" hidden="1">
       <c r="A536" t="s">
         <v>53</v>
       </c>
@@ -12733,7 +12734,7 @@
         <v>18100</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:6" hidden="1">
       <c r="A537" t="s">
         <v>53</v>
       </c>
@@ -12753,7 +12754,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:6" hidden="1">
       <c r="A538" t="s">
         <v>53</v>
       </c>
@@ -12773,7 +12774,7 @@
         <v>34900</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:6" hidden="1">
       <c r="A539" t="s">
         <v>53</v>
       </c>
@@ -12793,7 +12794,7 @@
         <v>9800</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:6" hidden="1">
       <c r="A540" t="s">
         <v>53</v>
       </c>
@@ -12813,7 +12814,7 @@
         <v>33800</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:6" hidden="1">
       <c r="A541" t="s">
         <v>53</v>
       </c>
@@ -12833,7 +12834,7 @@
         <v>25600</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:6" hidden="1">
       <c r="A542" t="s">
         <v>53</v>
       </c>
@@ -12853,7 +12854,7 @@
         <v>11300</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:6" hidden="1">
       <c r="A543" t="s">
         <v>53</v>
       </c>
@@ -12873,7 +12874,7 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:6" hidden="1">
       <c r="A544" t="s">
         <v>53</v>
       </c>
@@ -12893,7 +12894,7 @@
         <v>8700</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:6" hidden="1">
       <c r="A545" t="s">
         <v>53</v>
       </c>
@@ -12913,7 +12914,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:6" hidden="1">
       <c r="A546" t="s">
         <v>53</v>
       </c>
@@ -12933,7 +12934,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:6" hidden="1">
       <c r="A547" t="s">
         <v>53</v>
       </c>
@@ -12953,7 +12954,7 @@
         <v>14800</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:6" hidden="1">
       <c r="A548" t="s">
         <v>53</v>
       </c>
@@ -12973,7 +12974,7 @@
         <v>11900</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:6" hidden="1">
       <c r="A549" t="s">
         <v>53</v>
       </c>
@@ -12993,7 +12994,7 @@
         <v>22800</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:6" hidden="1">
       <c r="A550" t="s">
         <v>53</v>
       </c>
@@ -13013,7 +13014,7 @@
         <v>35100</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:6" hidden="1">
       <c r="A551" t="s">
         <v>53</v>
       </c>
@@ -13033,7 +13034,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:6" hidden="1">
       <c r="A552" t="s">
         <v>53</v>
       </c>
@@ -13053,7 +13054,7 @@
         <v>10600</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:6" hidden="1">
       <c r="A553" t="s">
         <v>54</v>
       </c>
@@ -13073,7 +13074,7 @@
         <v>6100</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:6" hidden="1">
       <c r="A554" t="s">
         <v>54</v>
       </c>
@@ -13093,7 +13094,7 @@
         <v>11300</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:6" hidden="1">
       <c r="A555" t="s">
         <v>54</v>
       </c>
@@ -13113,7 +13114,7 @@
         <v>6700</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:6" hidden="1">
       <c r="A556" t="s">
         <v>54</v>
       </c>
@@ -13133,7 +13134,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:6" hidden="1">
       <c r="A557" t="s">
         <v>54</v>
       </c>
@@ -13153,7 +13154,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:6" hidden="1">
       <c r="A558" t="s">
         <v>54</v>
       </c>
@@ -13173,7 +13174,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:6" hidden="1">
       <c r="A559" t="s">
         <v>54</v>
       </c>
@@ -13193,7 +13194,7 @@
         <v>11300</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:6" hidden="1">
       <c r="A560" t="s">
         <v>54</v>
       </c>
@@ -13213,7 +13214,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:6" hidden="1">
       <c r="A561" t="s">
         <v>54</v>
       </c>
@@ -13233,7 +13234,7 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:6" hidden="1">
       <c r="A562" t="s">
         <v>54</v>
       </c>
@@ -13253,7 +13254,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:6" hidden="1">
       <c r="A563" t="s">
         <v>54</v>
       </c>
@@ -13273,7 +13274,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:6" hidden="1">
       <c r="A564" t="s">
         <v>54</v>
       </c>
@@ -13293,7 +13294,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:6" hidden="1">
       <c r="A565" t="s">
         <v>54</v>
       </c>
@@ -13313,7 +13314,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:6" hidden="1">
       <c r="A566" t="s">
         <v>54</v>
       </c>
@@ -13333,7 +13334,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:6" hidden="1">
       <c r="A567" t="s">
         <v>54</v>
       </c>
@@ -13353,7 +13354,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:6" hidden="1">
       <c r="A568" t="s">
         <v>54</v>
       </c>
@@ -13373,7 +13374,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:6" hidden="1">
       <c r="A569" t="s">
         <v>54</v>
       </c>
@@ -13393,7 +13394,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:6" hidden="1">
       <c r="A570" t="s">
         <v>54</v>
       </c>
@@ -13413,7 +13414,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:6" hidden="1">
       <c r="A571" t="s">
         <v>54</v>
       </c>
@@ -13433,7 +13434,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:6" hidden="1">
       <c r="A572" t="s">
         <v>55</v>
       </c>
@@ -13453,7 +13454,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:6" hidden="1">
       <c r="A573" t="s">
         <v>55</v>
       </c>
@@ -13473,7 +13474,7 @@
         <v>8600</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:6" hidden="1">
       <c r="A574" t="s">
         <v>55</v>
       </c>
@@ -13493,7 +13494,7 @@
         <v>28300</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:6" hidden="1">
       <c r="A575" t="s">
         <v>55</v>
       </c>
@@ -13513,7 +13514,7 @@
         <v>7900</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:6" hidden="1">
       <c r="A576" t="s">
         <v>55</v>
       </c>
@@ -13533,7 +13534,7 @@
         <v>42300</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:6" hidden="1">
       <c r="A577" t="s">
         <v>55</v>
       </c>
@@ -13553,7 +13554,7 @@
         <v>13600</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:6" hidden="1">
       <c r="A578" t="s">
         <v>55</v>
       </c>
@@ -13573,7 +13574,7 @@
         <v>47900</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:6" hidden="1">
       <c r="A579" t="s">
         <v>55</v>
       </c>
@@ -13593,7 +13594,7 @@
         <v>37000</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:6" hidden="1">
       <c r="A580" t="s">
         <v>55</v>
       </c>
@@ -13613,7 +13614,7 @@
         <v>26900</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:6" hidden="1">
       <c r="A581" t="s">
         <v>55</v>
       </c>
@@ -13633,7 +13634,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:6" hidden="1">
       <c r="A582" t="s">
         <v>55</v>
       </c>
@@ -13653,7 +13654,7 @@
         <v>18400</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:6" hidden="1">
       <c r="A583" t="s">
         <v>55</v>
       </c>
@@ -13673,7 +13674,7 @@
         <v>11700</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:6" hidden="1">
       <c r="A584" t="s">
         <v>55</v>
       </c>
@@ -13693,7 +13694,7 @@
         <v>54700</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:6" hidden="1">
       <c r="A585" t="s">
         <v>55</v>
       </c>
@@ -13713,7 +13714,7 @@
         <v>15800</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:6" hidden="1">
       <c r="A586" t="s">
         <v>55</v>
       </c>
@@ -13733,7 +13734,7 @@
         <v>36800</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:6" hidden="1">
       <c r="A587" t="s">
         <v>55</v>
       </c>
@@ -13753,7 +13754,7 @@
         <v>34300</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:6" hidden="1">
       <c r="A588" t="s">
         <v>55</v>
       </c>
@@ -13773,7 +13774,7 @@
         <v>61700</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:6" hidden="1">
       <c r="A589" t="s">
         <v>55</v>
       </c>
@@ -13793,7 +13794,7 @@
         <v>9400</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:6" hidden="1">
       <c r="A590" t="s">
         <v>55</v>
       </c>
@@ -13813,7 +13814,7 @@
         <v>22200</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:6" hidden="1">
       <c r="A591" t="s">
         <v>56</v>
       </c>
@@ -13833,7 +13834,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:6" hidden="1">
       <c r="A592" t="s">
         <v>56</v>
       </c>
@@ -13853,7 +13854,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:6" hidden="1">
       <c r="A593" t="s">
         <v>56</v>
       </c>
@@ -13873,7 +13874,7 @@
         <v>6200</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:6" hidden="1">
       <c r="A594" t="s">
         <v>56</v>
       </c>
@@ -13893,7 +13894,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:6" hidden="1">
       <c r="A595" t="s">
         <v>56</v>
       </c>
@@ -13913,7 +13914,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:6" hidden="1">
       <c r="A596" t="s">
         <v>56</v>
       </c>
@@ -13933,7 +13934,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:6" hidden="1">
       <c r="A597" t="s">
         <v>56</v>
       </c>
@@ -13953,7 +13954,7 @@
         <v>12700</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:6" hidden="1">
       <c r="A598" t="s">
         <v>56</v>
       </c>
@@ -13973,7 +13974,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:6" hidden="1">
       <c r="A599" t="s">
         <v>56</v>
       </c>
@@ -13993,7 +13994,7 @@
         <v>6200</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:6" hidden="1">
       <c r="A600" t="s">
         <v>56</v>
       </c>
@@ -14013,7 +14014,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:6" hidden="1">
       <c r="A601" t="s">
         <v>56</v>
       </c>
@@ -14033,7 +14034,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:6" hidden="1">
       <c r="A602" t="s">
         <v>56</v>
       </c>
@@ -14053,7 +14054,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:6" hidden="1">
       <c r="A603" t="s">
         <v>56</v>
       </c>
@@ -14073,7 +14074,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:6" hidden="1">
       <c r="A604" t="s">
         <v>56</v>
       </c>
@@ -14093,7 +14094,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:6" hidden="1">
       <c r="A605" t="s">
         <v>56</v>
       </c>
@@ -14113,7 +14114,7 @@
         <v>7700</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:6" hidden="1">
       <c r="A606" t="s">
         <v>56</v>
       </c>
@@ -14133,7 +14134,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:6" hidden="1">
       <c r="A607" t="s">
         <v>56</v>
       </c>
@@ -14153,7 +14154,7 @@
         <v>18100</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:6" hidden="1">
       <c r="A608" t="s">
         <v>56</v>
       </c>
@@ -14173,7 +14174,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:6" hidden="1">
       <c r="A609" t="s">
         <v>56</v>
       </c>
@@ -14193,7 +14194,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:6" hidden="1">
       <c r="A610" t="s">
         <v>57</v>
       </c>
@@ -14213,7 +14214,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:6" hidden="1">
       <c r="A611" t="s">
         <v>57</v>
       </c>
@@ -14233,7 +14234,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:6" hidden="1">
       <c r="A612" t="s">
         <v>57</v>
       </c>
@@ -14253,7 +14254,7 @@
         <v>16700</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:6" hidden="1">
       <c r="A613" t="s">
         <v>57</v>
       </c>
@@ -14273,7 +14274,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:6" hidden="1">
       <c r="A614" t="s">
         <v>57</v>
       </c>
@@ -14293,7 +14294,7 @@
         <v>24400</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:6" hidden="1">
       <c r="A615" t="s">
         <v>57</v>
       </c>
@@ -14313,7 +14314,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:6" hidden="1">
       <c r="A616" t="s">
         <v>57</v>
       </c>
@@ -14333,7 +14334,7 @@
         <v>34100</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:6" hidden="1">
       <c r="A617" t="s">
         <v>57</v>
       </c>
@@ -14353,7 +14354,7 @@
         <v>23800</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:6" hidden="1">
       <c r="A618" t="s">
         <v>57</v>
       </c>
@@ -14373,7 +14374,7 @@
         <v>9200</v>
       </c>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:6" hidden="1">
       <c r="A619" t="s">
         <v>57</v>
       </c>
@@ -14393,7 +14394,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:6" hidden="1">
       <c r="A620" t="s">
         <v>57</v>
       </c>
@@ -14413,7 +14414,7 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:6" hidden="1">
       <c r="A621" t="s">
         <v>57</v>
       </c>
@@ -14433,7 +14434,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:6" hidden="1">
       <c r="A622" t="s">
         <v>57</v>
       </c>
@@ -14453,7 +14454,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:6" hidden="1">
       <c r="A623" t="s">
         <v>57</v>
       </c>
@@ -14473,7 +14474,7 @@
         <v>7400</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:6" hidden="1">
       <c r="A624" t="s">
         <v>57</v>
       </c>
@@ -14493,7 +14494,7 @@
         <v>14100</v>
       </c>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:6" hidden="1">
       <c r="A625" t="s">
         <v>57</v>
       </c>
@@ -14513,7 +14514,7 @@
         <v>23400</v>
       </c>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:6" hidden="1">
       <c r="A626" t="s">
         <v>57</v>
       </c>
@@ -14533,7 +14534,7 @@
         <v>37800</v>
       </c>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:6" hidden="1">
       <c r="A627" t="s">
         <v>57</v>
       </c>
@@ -14553,7 +14554,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:6" hidden="1">
       <c r="A628" t="s">
         <v>57</v>
       </c>
@@ -14573,7 +14574,7 @@
         <v>12300</v>
       </c>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:6" hidden="1">
       <c r="A629" t="s">
         <v>58</v>
       </c>
@@ -14593,7 +14594,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:6" hidden="1">
       <c r="A630" t="s">
         <v>58</v>
       </c>
@@ -14613,7 +14614,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:6" hidden="1">
       <c r="A631" t="s">
         <v>58</v>
       </c>
@@ -14633,7 +14634,7 @@
         <v>21800</v>
       </c>
     </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:6" hidden="1">
       <c r="A632" t="s">
         <v>58</v>
       </c>
@@ -14653,7 +14654,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:6" hidden="1">
       <c r="A633" t="s">
         <v>58</v>
       </c>
@@ -14673,7 +14674,7 @@
         <v>16800</v>
       </c>
     </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:6" hidden="1">
       <c r="A634" t="s">
         <v>58</v>
       </c>
@@ -14693,7 +14694,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:6" hidden="1">
       <c r="A635" t="s">
         <v>58</v>
       </c>
@@ -14713,7 +14714,7 @@
         <v>22500</v>
       </c>
     </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:6" hidden="1">
       <c r="A636" t="s">
         <v>58</v>
       </c>
@@ -14733,7 +14734,7 @@
         <v>15700</v>
       </c>
     </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:6" hidden="1">
       <c r="A637" t="s">
         <v>58</v>
       </c>
@@ -14753,7 +14754,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:6" hidden="1">
       <c r="A638" t="s">
         <v>58</v>
       </c>
@@ -14773,7 +14774,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:6" hidden="1">
       <c r="A639" t="s">
         <v>58</v>
       </c>
@@ -14793,7 +14794,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:6" hidden="1">
       <c r="A640" t="s">
         <v>58</v>
       </c>
@@ -14813,7 +14814,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:6" hidden="1">
       <c r="A641" t="s">
         <v>58</v>
       </c>
@@ -14833,7 +14834,7 @@
         <v>22300</v>
       </c>
     </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:6" hidden="1">
       <c r="A642" t="s">
         <v>58</v>
       </c>
@@ -14853,7 +14854,7 @@
         <v>9400</v>
       </c>
     </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:6" hidden="1">
       <c r="A643" t="s">
         <v>58</v>
       </c>
@@ -14873,7 +14874,7 @@
         <v>17700</v>
       </c>
     </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:6" hidden="1">
       <c r="A644" t="s">
         <v>58</v>
       </c>
@@ -14893,7 +14894,7 @@
         <v>23300</v>
       </c>
     </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:6" hidden="1">
       <c r="A645" t="s">
         <v>58</v>
       </c>
@@ -14913,7 +14914,7 @@
         <v>30100</v>
       </c>
     </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:6" hidden="1">
       <c r="A646" t="s">
         <v>58</v>
       </c>
@@ -14933,7 +14934,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:6" hidden="1">
       <c r="A647" t="s">
         <v>58</v>
       </c>
@@ -14953,7 +14954,7 @@
         <v>10600</v>
       </c>
     </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:6" hidden="1">
       <c r="A648" t="s">
         <v>59</v>
       </c>
@@ -14973,7 +14974,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:6" hidden="1">
       <c r="A649" t="s">
         <v>59</v>
       </c>
@@ -14993,7 +14994,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:6" hidden="1">
       <c r="A650" t="s">
         <v>59</v>
       </c>
@@ -15013,7 +15014,7 @@
         <v>31100</v>
       </c>
     </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:6" hidden="1">
       <c r="A651" t="s">
         <v>59</v>
       </c>
@@ -15033,7 +15034,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:6" hidden="1">
       <c r="A652" t="s">
         <v>59</v>
       </c>
@@ -15053,7 +15054,7 @@
         <v>27400</v>
       </c>
     </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:6" hidden="1">
       <c r="A653" t="s">
         <v>59</v>
       </c>
@@ -15073,7 +15074,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:6" hidden="1">
       <c r="A654" t="s">
         <v>59</v>
       </c>
@@ -15093,7 +15094,7 @@
         <v>35600</v>
       </c>
     </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:6" hidden="1">
       <c r="A655" t="s">
         <v>59</v>
       </c>
@@ -15113,7 +15114,7 @@
         <v>18900</v>
       </c>
     </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:6" hidden="1">
       <c r="A656" t="s">
         <v>59</v>
       </c>
@@ -15133,7 +15134,7 @@
         <v>17800</v>
       </c>
     </row>
-    <row r="657" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:6" hidden="1">
       <c r="A657" t="s">
         <v>59</v>
       </c>
@@ -15153,7 +15154,7 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="658" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:6" hidden="1">
       <c r="A658" t="s">
         <v>59</v>
       </c>
@@ -15173,7 +15174,7 @@
         <v>7400</v>
       </c>
     </row>
-    <row r="659" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:6" hidden="1">
       <c r="A659" t="s">
         <v>59</v>
       </c>
@@ -15193,7 +15194,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="660" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:6" hidden="1">
       <c r="A660" t="s">
         <v>59</v>
       </c>
@@ -15213,7 +15214,7 @@
         <v>19300</v>
       </c>
     </row>
-    <row r="661" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:6" hidden="1">
       <c r="A661" t="s">
         <v>59</v>
       </c>
@@ -15233,7 +15234,7 @@
         <v>10700</v>
       </c>
     </row>
-    <row r="662" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:6" hidden="1">
       <c r="A662" t="s">
         <v>59</v>
       </c>
@@ -15253,7 +15254,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="663" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:6" hidden="1">
       <c r="A663" t="s">
         <v>59</v>
       </c>
@@ -15273,7 +15274,7 @@
         <v>19900</v>
       </c>
     </row>
-    <row r="664" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:6" hidden="1">
       <c r="A664" t="s">
         <v>59</v>
       </c>
@@ -15293,7 +15294,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="665" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:6" hidden="1">
       <c r="A665" t="s">
         <v>59</v>
       </c>
@@ -15313,7 +15314,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="666" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:6" hidden="1">
       <c r="A666" t="s">
         <v>59</v>
       </c>
@@ -15333,7 +15334,7 @@
         <v>14800</v>
       </c>
     </row>
-    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:6" hidden="1">
       <c r="A667" t="s">
         <v>61</v>
       </c>
@@ -15353,7 +15354,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="668" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:6" hidden="1">
       <c r="A668" t="s">
         <v>61</v>
       </c>
@@ -15373,7 +15374,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:6" hidden="1">
       <c r="A669" t="s">
         <v>61</v>
       </c>
@@ -15393,7 +15394,7 @@
         <v>23800</v>
       </c>
     </row>
-    <row r="670" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:6" hidden="1">
       <c r="A670" t="s">
         <v>61</v>
       </c>
@@ -15413,7 +15414,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="671" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:6" hidden="1">
       <c r="A671" t="s">
         <v>61</v>
       </c>
@@ -15433,7 +15434,7 @@
         <v>22100</v>
       </c>
     </row>
-    <row r="672" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:6" hidden="1">
       <c r="A672" t="s">
         <v>61</v>
       </c>
@@ -15453,7 +15454,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="673" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:6" hidden="1">
       <c r="A673" t="s">
         <v>61</v>
       </c>
@@ -15473,7 +15474,7 @@
         <v>35600</v>
       </c>
     </row>
-    <row r="674" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:6" hidden="1">
       <c r="A674" t="s">
         <v>61</v>
       </c>
@@ -15493,7 +15494,7 @@
         <v>23100</v>
       </c>
     </row>
-    <row r="675" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:6" hidden="1">
       <c r="A675" t="s">
         <v>61</v>
       </c>
@@ -15513,7 +15514,7 @@
         <v>11600</v>
       </c>
     </row>
-    <row r="676" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:6" hidden="1">
       <c r="A676" t="s">
         <v>61</v>
       </c>
@@ -15533,7 +15534,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="677" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:6" hidden="1">
       <c r="A677" t="s">
         <v>61</v>
       </c>
@@ -15553,7 +15554,7 @@
         <v>11500</v>
       </c>
     </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:6" hidden="1">
       <c r="A678" t="s">
         <v>61</v>
       </c>
@@ -15573,7 +15574,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="679" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:6" hidden="1">
       <c r="A679" t="s">
         <v>61</v>
       </c>
@@ -15593,7 +15594,7 @@
         <v>28200</v>
       </c>
     </row>
-    <row r="680" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:6" hidden="1">
       <c r="A680" t="s">
         <v>61</v>
       </c>
@@ -15613,7 +15614,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="681" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:6" hidden="1">
       <c r="A681" t="s">
         <v>61</v>
       </c>
@@ -15633,7 +15634,7 @@
         <v>20600</v>
       </c>
     </row>
-    <row r="682" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:6" hidden="1">
       <c r="A682" t="s">
         <v>61</v>
       </c>
@@ -15653,7 +15654,7 @@
         <v>31300</v>
       </c>
     </row>
-    <row r="683" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:6" hidden="1">
       <c r="A683" t="s">
         <v>61</v>
       </c>
@@ -15673,7 +15674,7 @@
         <v>52500</v>
       </c>
     </row>
-    <row r="684" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:6" hidden="1">
       <c r="A684" t="s">
         <v>61</v>
       </c>
@@ -15693,7 +15694,7 @@
         <v>7400</v>
       </c>
     </row>
-    <row r="685" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:6" hidden="1">
       <c r="A685" t="s">
         <v>61</v>
       </c>
@@ -15713,7 +15714,7 @@
         <v>12900</v>
       </c>
     </row>
-    <row r="686" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:6" hidden="1">
       <c r="A686" t="s">
         <v>62</v>
       </c>
@@ -15733,7 +15734,7 @@
         <v>12200</v>
       </c>
     </row>
-    <row r="687" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:6" hidden="1">
       <c r="A687" t="s">
         <v>62</v>
       </c>
@@ -15753,7 +15754,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="688" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:6" hidden="1">
       <c r="A688" t="s">
         <v>62</v>
       </c>
@@ -15773,7 +15774,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="689" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:6" hidden="1">
       <c r="A689" t="s">
         <v>62</v>
       </c>
@@ -15793,7 +15794,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="690" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:6" hidden="1">
       <c r="A690" t="s">
         <v>62</v>
       </c>
@@ -15813,7 +15814,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="691" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:6" hidden="1">
       <c r="A691" t="s">
         <v>62</v>
       </c>
@@ -15833,7 +15834,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="692" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:6" hidden="1">
       <c r="A692" t="s">
         <v>62</v>
       </c>
@@ -15853,7 +15854,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="693" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:6" hidden="1">
       <c r="A693" t="s">
         <v>62</v>
       </c>
@@ -15873,7 +15874,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="694" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:6" hidden="1">
       <c r="A694" t="s">
         <v>62</v>
       </c>
@@ -15893,7 +15894,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="695" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:6" hidden="1">
       <c r="A695" t="s">
         <v>62</v>
       </c>
@@ -15913,7 +15914,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="696" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:6" hidden="1">
       <c r="A696" t="s">
         <v>62</v>
       </c>
@@ -15933,7 +15934,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="697" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:6" hidden="1">
       <c r="A697" t="s">
         <v>62</v>
       </c>
@@ -15953,7 +15954,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="698" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:6" hidden="1">
       <c r="A698" t="s">
         <v>62</v>
       </c>
@@ -15973,7 +15974,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="699" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:6" hidden="1">
       <c r="A699" t="s">
         <v>62</v>
       </c>
@@ -15993,7 +15994,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:6" hidden="1">
       <c r="A700" t="s">
         <v>62</v>
       </c>
@@ -16013,7 +16014,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="701" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:6" hidden="1">
       <c r="A701" t="s">
         <v>62</v>
       </c>
@@ -16033,7 +16034,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:6" hidden="1">
       <c r="A702" t="s">
         <v>62</v>
       </c>
@@ -16053,7 +16054,7 @@
         <v>7700</v>
       </c>
     </row>
-    <row r="703" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:6" hidden="1">
       <c r="A703" t="s">
         <v>62</v>
       </c>
@@ -16073,7 +16074,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="704" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:6" hidden="1">
       <c r="A704" t="s">
         <v>62</v>
       </c>
@@ -16093,7 +16094,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="705" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:6" hidden="1">
       <c r="A705" t="s">
         <v>76</v>
       </c>
@@ -16113,7 +16114,7 @@
         <v>15700</v>
       </c>
     </row>
-    <row r="706" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:6" hidden="1">
       <c r="A706" t="s">
         <v>76</v>
       </c>
@@ -16133,7 +16134,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:6" hidden="1">
       <c r="A707" t="s">
         <v>76</v>
       </c>
@@ -16153,7 +16154,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="708" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:6" hidden="1">
       <c r="A708" t="s">
         <v>76</v>
       </c>
@@ -16173,7 +16174,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="709" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:6" hidden="1">
       <c r="A709" t="s">
         <v>76</v>
       </c>
@@ -16193,7 +16194,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:6" hidden="1">
       <c r="A710" t="s">
         <v>76</v>
       </c>
@@ -16213,7 +16214,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="711" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:6" hidden="1">
       <c r="A711" t="s">
         <v>76</v>
       </c>
@@ -16233,7 +16234,7 @@
         <v>9800</v>
       </c>
     </row>
-    <row r="712" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:6" hidden="1">
       <c r="A712" t="s">
         <v>76</v>
       </c>
@@ -16253,7 +16254,7 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="713" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:6" hidden="1">
       <c r="A713" t="s">
         <v>76</v>
       </c>
@@ -16273,7 +16274,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="714" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:6" hidden="1">
       <c r="A714" t="s">
         <v>76</v>
       </c>
@@ -16293,7 +16294,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:6" hidden="1">
       <c r="A715" t="s">
         <v>76</v>
       </c>
@@ -16313,7 +16314,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="716" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:6" hidden="1">
       <c r="A716" t="s">
         <v>76</v>
       </c>
@@ -16333,7 +16334,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="717" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:6" hidden="1">
       <c r="A717" t="s">
         <v>76</v>
       </c>
@@ -16353,7 +16354,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="718" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:6" hidden="1">
       <c r="A718" t="s">
         <v>76</v>
       </c>
@@ -16373,7 +16374,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="719" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:6" hidden="1">
       <c r="A719" t="s">
         <v>76</v>
       </c>
@@ -16393,7 +16394,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="720" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:6" hidden="1">
       <c r="A720" t="s">
         <v>76</v>
       </c>
@@ -16413,7 +16414,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="721" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:6" hidden="1">
       <c r="A721" t="s">
         <v>76</v>
       </c>
@@ -16433,7 +16434,7 @@
         <v>9700</v>
       </c>
     </row>
-    <row r="722" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:6" hidden="1">
       <c r="A722" t="s">
         <v>76</v>
       </c>
@@ -16453,7 +16454,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="723" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:6" hidden="1">
       <c r="A723" t="s">
         <v>76</v>
       </c>
@@ -16473,7 +16474,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="724" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:6" hidden="1">
       <c r="A724" t="s">
         <v>63</v>
       </c>
@@ -16493,7 +16494,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="725" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:6" hidden="1">
       <c r="A725" t="s">
         <v>63</v>
       </c>
@@ -16513,7 +16514,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="726" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:6" hidden="1">
       <c r="A726" t="s">
         <v>63</v>
       </c>
@@ -16533,7 +16534,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="727" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:6" hidden="1">
       <c r="A727" t="s">
         <v>63</v>
       </c>
@@ -16553,7 +16554,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="728" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:6" hidden="1">
       <c r="A728" t="s">
         <v>63</v>
       </c>
@@ -16573,7 +16574,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="729" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:6" hidden="1">
       <c r="A729" t="s">
         <v>63</v>
       </c>
@@ -16593,7 +16594,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="730" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:6" hidden="1">
       <c r="A730" t="s">
         <v>63</v>
       </c>
@@ -16613,7 +16614,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="731" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:6" hidden="1">
       <c r="A731" t="s">
         <v>63</v>
       </c>
@@ -16633,7 +16634,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="732" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:6" hidden="1">
       <c r="A732" t="s">
         <v>63</v>
       </c>
@@ -16653,7 +16654,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="733" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:6" hidden="1">
       <c r="A733" t="s">
         <v>63</v>
       </c>
@@ -16673,7 +16674,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="734" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:6" hidden="1">
       <c r="A734" t="s">
         <v>63</v>
       </c>
@@ -16693,7 +16694,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="735" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:6" hidden="1">
       <c r="A735" t="s">
         <v>63</v>
       </c>
@@ -16713,7 +16714,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="736" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:6" hidden="1">
       <c r="A736" t="s">
         <v>63</v>
       </c>
@@ -16733,7 +16734,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="737" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:6" hidden="1">
       <c r="A737" t="s">
         <v>63</v>
       </c>
@@ -16753,7 +16754,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="738" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:6" hidden="1">
       <c r="A738" t="s">
         <v>63</v>
       </c>
@@ -16773,7 +16774,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="739" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:6" hidden="1">
       <c r="A739" t="s">
         <v>63</v>
       </c>
@@ -16793,7 +16794,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="740" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:6" hidden="1">
       <c r="A740" t="s">
         <v>63</v>
       </c>
@@ -16813,7 +16814,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="741" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:6" hidden="1">
       <c r="A741" t="s">
         <v>63</v>
       </c>
@@ -16833,7 +16834,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="742" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:6" hidden="1">
       <c r="A742" t="s">
         <v>63</v>
       </c>
@@ -16853,7 +16854,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="743" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:6" hidden="1">
       <c r="A743" t="s">
         <v>65</v>
       </c>
@@ -16873,7 +16874,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="744" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:6" hidden="1">
       <c r="A744" t="s">
         <v>65</v>
       </c>
@@ -16893,7 +16894,7 @@
         <v>31500</v>
       </c>
     </row>
-    <row r="745" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:6" hidden="1">
       <c r="A745" t="s">
         <v>65</v>
       </c>
@@ -16913,7 +16914,7 @@
         <v>30200</v>
       </c>
     </row>
-    <row r="746" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:6" hidden="1">
       <c r="A746" t="s">
         <v>65</v>
       </c>
@@ -16933,7 +16934,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="747" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:6" hidden="1">
       <c r="A747" t="s">
         <v>65</v>
       </c>
@@ -16953,7 +16954,7 @@
         <v>63100</v>
       </c>
     </row>
-    <row r="748" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:6" hidden="1">
       <c r="A748" t="s">
         <v>65</v>
       </c>
@@ -16973,7 +16974,7 @@
         <v>17800</v>
       </c>
     </row>
-    <row r="749" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:6" hidden="1">
       <c r="A749" t="s">
         <v>65</v>
       </c>
@@ -16993,7 +16994,7 @@
         <v>51900</v>
       </c>
     </row>
-    <row r="750" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:6" hidden="1">
       <c r="A750" t="s">
         <v>65</v>
       </c>
@@ -17013,7 +17014,7 @@
         <v>31700</v>
       </c>
     </row>
-    <row r="751" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:6" hidden="1">
       <c r="A751" t="s">
         <v>65</v>
       </c>
@@ -17033,7 +17034,7 @@
         <v>20100</v>
       </c>
     </row>
-    <row r="752" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:6" hidden="1">
       <c r="A752" t="s">
         <v>65</v>
       </c>
@@ -17053,7 +17054,7 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="753" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:6" hidden="1">
       <c r="A753" t="s">
         <v>65</v>
       </c>
@@ -17073,7 +17074,7 @@
         <v>17300</v>
       </c>
     </row>
-    <row r="754" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:6" hidden="1">
       <c r="A754" t="s">
         <v>65</v>
       </c>
@@ -17093,7 +17094,7 @@
         <v>10700</v>
       </c>
     </row>
-    <row r="755" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:6" hidden="1">
       <c r="A755" t="s">
         <v>65</v>
       </c>
@@ -17113,7 +17114,7 @@
         <v>58400</v>
       </c>
     </row>
-    <row r="756" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:6" hidden="1">
       <c r="A756" t="s">
         <v>65</v>
       </c>
@@ -17133,7 +17134,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="757" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:6" hidden="1">
       <c r="A757" t="s">
         <v>65</v>
       </c>
@@ -17153,7 +17154,7 @@
         <v>33500</v>
       </c>
     </row>
-    <row r="758" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:6" hidden="1">
       <c r="A758" t="s">
         <v>65</v>
       </c>
@@ -17173,7 +17174,7 @@
         <v>40100</v>
       </c>
     </row>
-    <row r="759" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:6" hidden="1">
       <c r="A759" t="s">
         <v>65</v>
       </c>
@@ -17193,7 +17194,7 @@
         <v>63000</v>
       </c>
     </row>
-    <row r="760" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:6" hidden="1">
       <c r="A760" t="s">
         <v>65</v>
       </c>
@@ -17213,7 +17214,7 @@
         <v>12400</v>
       </c>
     </row>
-    <row r="761" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:6" hidden="1">
       <c r="A761" t="s">
         <v>65</v>
       </c>
@@ -17233,7 +17234,7 @@
         <v>22300</v>
       </c>
     </row>
-    <row r="762" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:6" hidden="1">
       <c r="A762" t="s">
         <v>66</v>
       </c>
@@ -17253,7 +17254,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="763" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:6" hidden="1">
       <c r="A763" t="s">
         <v>66</v>
       </c>
@@ -17273,7 +17274,7 @@
         <v>30100</v>
       </c>
     </row>
-    <row r="764" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:6" hidden="1">
       <c r="A764" t="s">
         <v>66</v>
       </c>
@@ -17293,7 +17294,7 @@
         <v>38900</v>
       </c>
     </row>
-    <row r="765" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:6" hidden="1">
       <c r="A765" t="s">
         <v>66</v>
       </c>
@@ -17313,7 +17314,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="766" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:6" hidden="1">
       <c r="A766" t="s">
         <v>66</v>
       </c>
@@ -17333,7 +17334,7 @@
         <v>52500</v>
       </c>
     </row>
-    <row r="767" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:6" hidden="1">
       <c r="A767" t="s">
         <v>66</v>
       </c>
@@ -17353,7 +17354,7 @@
         <v>16600</v>
       </c>
     </row>
-    <row r="768" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:6" hidden="1">
       <c r="A768" t="s">
         <v>66</v>
       </c>
@@ -17373,7 +17374,7 @@
         <v>54100</v>
       </c>
     </row>
-    <row r="769" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:6" hidden="1">
       <c r="A769" t="s">
         <v>66</v>
       </c>
@@ -17393,7 +17394,7 @@
         <v>33400</v>
       </c>
     </row>
-    <row r="770" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:6" hidden="1">
       <c r="A770" t="s">
         <v>66</v>
       </c>
@@ -17413,7 +17414,7 @@
         <v>27900</v>
       </c>
     </row>
-    <row r="771" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:6" hidden="1">
       <c r="A771" t="s">
         <v>66</v>
       </c>
@@ -17433,7 +17434,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="772" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:6" hidden="1">
       <c r="A772" t="s">
         <v>66</v>
       </c>
@@ -17453,7 +17454,7 @@
         <v>11800</v>
       </c>
     </row>
-    <row r="773" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:6" hidden="1">
       <c r="A773" t="s">
         <v>66</v>
       </c>
@@ -17473,7 +17474,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="774" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:6" hidden="1">
       <c r="A774" t="s">
         <v>66</v>
       </c>
@@ -17493,7 +17494,7 @@
         <v>42200</v>
       </c>
     </row>
-    <row r="775" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:6" hidden="1">
       <c r="A775" t="s">
         <v>66</v>
       </c>
@@ -17513,7 +17514,7 @@
         <v>16700</v>
       </c>
     </row>
-    <row r="776" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:6" hidden="1">
       <c r="A776" t="s">
         <v>66</v>
       </c>
@@ -17533,7 +17534,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="777" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:6" hidden="1">
       <c r="A777" t="s">
         <v>66</v>
       </c>
@@ -17553,7 +17554,7 @@
         <v>37600</v>
       </c>
     </row>
-    <row r="778" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:6" hidden="1">
       <c r="A778" t="s">
         <v>66</v>
       </c>
@@ -17573,7 +17574,7 @@
         <v>57800</v>
       </c>
     </row>
-    <row r="779" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:6" hidden="1">
       <c r="A779" t="s">
         <v>66</v>
       </c>
@@ -17593,7 +17594,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="780" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:6" hidden="1">
       <c r="A780" t="s">
         <v>66</v>
       </c>
@@ -17613,7 +17614,7 @@
         <v>20900</v>
       </c>
     </row>
-    <row r="781" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:6" hidden="1">
       <c r="A781" t="s">
         <v>67</v>
       </c>
@@ -17633,7 +17634,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="782" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:6" hidden="1">
       <c r="A782" t="s">
         <v>67</v>
       </c>
@@ -17653,7 +17654,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="783" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:6" hidden="1">
       <c r="A783" t="s">
         <v>67</v>
       </c>
@@ -17673,7 +17674,7 @@
         <v>8300</v>
       </c>
     </row>
-    <row r="784" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:6" hidden="1">
       <c r="A784" t="s">
         <v>67</v>
       </c>
@@ -17693,7 +17694,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="785" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:6" hidden="1">
       <c r="A785" t="s">
         <v>67</v>
       </c>
@@ -17713,7 +17714,7 @@
         <v>9700</v>
       </c>
     </row>
-    <row r="786" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:6" hidden="1">
       <c r="A786" t="s">
         <v>67</v>
       </c>
@@ -17733,7 +17734,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="787" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:6" hidden="1">
       <c r="A787" t="s">
         <v>67</v>
       </c>
@@ -17753,7 +17754,7 @@
         <v>8200</v>
       </c>
     </row>
-    <row r="788" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:6" hidden="1">
       <c r="A788" t="s">
         <v>67</v>
       </c>
@@ -17773,7 +17774,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="789" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:6" hidden="1">
       <c r="A789" t="s">
         <v>67</v>
       </c>
@@ -17793,7 +17794,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="790" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:6" hidden="1">
       <c r="A790" t="s">
         <v>67</v>
       </c>
@@ -17813,7 +17814,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="791" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:6" hidden="1">
       <c r="A791" t="s">
         <v>67</v>
       </c>
@@ -17833,7 +17834,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="792" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:6" hidden="1">
       <c r="A792" t="s">
         <v>67</v>
       </c>
@@ -17853,7 +17854,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="793" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:6" hidden="1">
       <c r="A793" t="s">
         <v>67</v>
       </c>
@@ -17873,7 +17874,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="794" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:6" hidden="1">
       <c r="A794" t="s">
         <v>67</v>
       </c>
@@ -17893,7 +17894,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="795" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:6" hidden="1">
       <c r="A795" t="s">
         <v>67</v>
       </c>
@@ -17913,7 +17914,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="796" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:6" hidden="1">
       <c r="A796" t="s">
         <v>67</v>
       </c>
@@ -17933,7 +17934,7 @@
         <v>9800</v>
       </c>
     </row>
-    <row r="797" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:6" hidden="1">
       <c r="A797" t="s">
         <v>67</v>
       </c>
@@ -17953,7 +17954,7 @@
         <v>7900</v>
       </c>
     </row>
-    <row r="798" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:6" hidden="1">
       <c r="A798" t="s">
         <v>67</v>
       </c>
@@ -17973,7 +17974,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="799" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:6" hidden="1">
       <c r="A799" t="s">
         <v>67</v>
       </c>
@@ -17993,7 +17994,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="800" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:6" hidden="1">
       <c r="A800" t="s">
         <v>68</v>
       </c>
@@ -18013,7 +18014,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="801" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:6" hidden="1">
       <c r="A801" t="s">
         <v>68</v>
       </c>
@@ -18033,7 +18034,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="802" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:6" hidden="1">
       <c r="A802" t="s">
         <v>68</v>
       </c>
@@ -18053,7 +18054,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="803" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:6" hidden="1">
       <c r="A803" t="s">
         <v>68</v>
       </c>
@@ -18073,7 +18074,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="804" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:6" hidden="1">
       <c r="A804" t="s">
         <v>68</v>
       </c>
@@ -18093,7 +18094,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="805" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:6" hidden="1">
       <c r="A805" t="s">
         <v>68</v>
       </c>
@@ -18113,7 +18114,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="806" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:6" hidden="1">
       <c r="A806" t="s">
         <v>68</v>
       </c>
@@ -18133,7 +18134,7 @@
         <v>13600</v>
       </c>
     </row>
-    <row r="807" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:6" hidden="1">
       <c r="A807" t="s">
         <v>68</v>
       </c>
@@ -18153,7 +18154,7 @@
         <v>9100</v>
       </c>
     </row>
-    <row r="808" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:6" hidden="1">
       <c r="A808" t="s">
         <v>68</v>
       </c>
@@ -18173,7 +18174,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="809" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:6" hidden="1">
       <c r="A809" t="s">
         <v>68</v>
       </c>
@@ -18193,7 +18194,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="810" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:6" hidden="1">
       <c r="A810" t="s">
         <v>68</v>
       </c>
@@ -18213,7 +18214,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="811" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:6" hidden="1">
       <c r="A811" t="s">
         <v>68</v>
       </c>
@@ -18233,7 +18234,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="812" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:6" hidden="1">
       <c r="A812" t="s">
         <v>68</v>
       </c>
@@ -18253,7 +18254,7 @@
         <v>7100</v>
       </c>
     </row>
-    <row r="813" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:6" hidden="1">
       <c r="A813" t="s">
         <v>68</v>
       </c>
@@ -18273,7 +18274,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="814" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:6" hidden="1">
       <c r="A814" t="s">
         <v>68</v>
       </c>
@@ -18293,7 +18294,7 @@
         <v>11800</v>
       </c>
     </row>
-    <row r="815" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:6" hidden="1">
       <c r="A815" t="s">
         <v>68</v>
       </c>
@@ -18313,7 +18314,7 @@
         <v>11300</v>
       </c>
     </row>
-    <row r="816" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:6" hidden="1">
       <c r="A816" t="s">
         <v>68</v>
       </c>
@@ -18333,7 +18334,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="817" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:6" hidden="1">
       <c r="A817" t="s">
         <v>68</v>
       </c>
@@ -18353,7 +18354,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="818" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:6" hidden="1">
       <c r="A818" t="s">
         <v>68</v>
       </c>
@@ -18373,7 +18374,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="819" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:6" hidden="1">
       <c r="A819" t="s">
         <v>70</v>
       </c>
@@ -18393,7 +18394,7 @@
         <v>8300</v>
       </c>
     </row>
-    <row r="820" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:6" hidden="1">
       <c r="A820" t="s">
         <v>70</v>
       </c>
@@ -18413,7 +18414,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="821" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:6" hidden="1">
       <c r="A821" t="s">
         <v>70</v>
       </c>
@@ -18433,7 +18434,7 @@
         <v>11800</v>
       </c>
     </row>
-    <row r="822" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:6" hidden="1">
       <c r="A822" t="s">
         <v>70</v>
       </c>
@@ -18453,7 +18454,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="823" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:6" hidden="1">
       <c r="A823" t="s">
         <v>70</v>
       </c>
@@ -18473,7 +18474,7 @@
         <v>7300</v>
       </c>
     </row>
-    <row r="824" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:6" hidden="1">
       <c r="A824" t="s">
         <v>70</v>
       </c>
@@ -18493,7 +18494,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="825" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:6" hidden="1">
       <c r="A825" t="s">
         <v>70</v>
       </c>
@@ -18513,7 +18514,7 @@
         <v>14500</v>
       </c>
     </row>
-    <row r="826" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:6" hidden="1">
       <c r="A826" t="s">
         <v>70</v>
       </c>
@@ -18533,7 +18534,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="827" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:6" hidden="1">
       <c r="A827" t="s">
         <v>70</v>
       </c>
@@ -18553,7 +18554,7 @@
         <v>6900</v>
       </c>
     </row>
-    <row r="828" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:6" hidden="1">
       <c r="A828" t="s">
         <v>70</v>
       </c>
@@ -18573,7 +18574,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="829" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:6" hidden="1">
       <c r="A829" t="s">
         <v>70</v>
       </c>
@@ -18593,7 +18594,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="830" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:6" hidden="1">
       <c r="A830" t="s">
         <v>70</v>
       </c>
@@ -18613,7 +18614,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="831" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:6" hidden="1">
       <c r="A831" t="s">
         <v>70</v>
       </c>
@@ -18633,7 +18634,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="832" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:6" hidden="1">
       <c r="A832" t="s">
         <v>70</v>
       </c>
@@ -18653,7 +18654,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="833" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:6" hidden="1">
       <c r="A833" t="s">
         <v>70</v>
       </c>
@@ -18673,7 +18674,7 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="834" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:6" hidden="1">
       <c r="A834" t="s">
         <v>70</v>
       </c>
@@ -18693,7 +18694,7 @@
         <v>10400</v>
       </c>
     </row>
-    <row r="835" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:6" hidden="1">
       <c r="A835" t="s">
         <v>70</v>
       </c>
@@ -18713,7 +18714,7 @@
         <v>15200</v>
       </c>
     </row>
-    <row r="836" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:6" hidden="1">
       <c r="A836" t="s">
         <v>70</v>
       </c>
@@ -18733,7 +18734,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="837" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:6" hidden="1">
       <c r="A837" t="s">
         <v>70</v>
       </c>
@@ -18753,7 +18754,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="838" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:6" hidden="1">
       <c r="A838" t="s">
         <v>71</v>
       </c>
@@ -18773,7 +18774,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="839" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:6" hidden="1">
       <c r="A839" t="s">
         <v>71</v>
       </c>
@@ -18793,7 +18794,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="840" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:6" hidden="1">
       <c r="A840" t="s">
         <v>71</v>
       </c>
@@ -18813,7 +18814,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="841" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:6" hidden="1">
       <c r="A841" t="s">
         <v>71</v>
       </c>
@@ -18833,7 +18834,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="842" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:6" hidden="1">
       <c r="A842" t="s">
         <v>71</v>
       </c>
@@ -18853,7 +18854,7 @@
         <v>11600</v>
       </c>
     </row>
-    <row r="843" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:6" hidden="1">
       <c r="A843" t="s">
         <v>71</v>
       </c>
@@ -18873,7 +18874,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="844" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:6" hidden="1">
       <c r="A844" t="s">
         <v>71</v>
       </c>
@@ -18893,7 +18894,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="845" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:6" hidden="1">
       <c r="A845" t="s">
         <v>71</v>
       </c>
@@ -18913,7 +18914,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="846" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:6" hidden="1">
       <c r="A846" t="s">
         <v>71</v>
       </c>
@@ -18933,7 +18934,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="847" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:6" hidden="1">
       <c r="A847" t="s">
         <v>71</v>
       </c>
@@ -18953,7 +18954,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="848" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:6" hidden="1">
       <c r="A848" t="s">
         <v>71</v>
       </c>
@@ -18973,7 +18974,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="849" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:6" hidden="1">
       <c r="A849" t="s">
         <v>71</v>
       </c>
@@ -18993,7 +18994,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="850" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:6" hidden="1">
       <c r="A850" t="s">
         <v>71</v>
       </c>
@@ -19013,7 +19014,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="851" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:6" hidden="1">
       <c r="A851" t="s">
         <v>71</v>
       </c>
@@ -19033,7 +19034,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="852" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:6" hidden="1">
       <c r="A852" t="s">
         <v>71</v>
       </c>
@@ -19053,7 +19054,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="853" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:6" hidden="1">
       <c r="A853" t="s">
         <v>71</v>
       </c>
@@ -19073,7 +19074,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="854" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:6" hidden="1">
       <c r="A854" t="s">
         <v>71</v>
       </c>
@@ -19093,7 +19094,7 @@
         <v>8300</v>
       </c>
     </row>
-    <row r="855" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:6" hidden="1">
       <c r="A855" t="s">
         <v>71</v>
       </c>
@@ -19113,7 +19114,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="856" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:6" hidden="1">
       <c r="A856" t="s">
         <v>71</v>
       </c>
@@ -19133,7 +19134,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="857" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:6" hidden="1">
       <c r="A857" t="s">
         <v>73</v>
       </c>
@@ -19150,7 +19151,7 @@
         <v>292400</v>
       </c>
     </row>
-    <row r="858" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:6" hidden="1">
       <c r="A858" t="s">
         <v>73</v>
       </c>
@@ -19167,7 +19168,7 @@
         <v>223100</v>
       </c>
     </row>
-    <row r="859" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:6" hidden="1">
       <c r="A859" t="s">
         <v>73</v>
       </c>
@@ -19184,7 +19185,7 @@
         <v>914100</v>
       </c>
     </row>
-    <row r="860" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:6" hidden="1">
       <c r="A860" t="s">
         <v>73</v>
       </c>
@@ -19201,7 +19202,7 @@
         <v>139100</v>
       </c>
     </row>
-    <row r="861" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:6" hidden="1">
       <c r="A861" t="s">
         <v>73</v>
       </c>
@@ -19218,7 +19219,7 @@
         <v>1030300</v>
       </c>
     </row>
-    <row r="862" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:6" hidden="1">
       <c r="A862" t="s">
         <v>73</v>
       </c>
@@ -19235,7 +19236,7 @@
         <v>396700</v>
       </c>
     </row>
-    <row r="863" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:6" hidden="1">
       <c r="A863" t="s">
         <v>73</v>
       </c>
@@ -19252,7 +19253,7 @@
         <v>1222900</v>
       </c>
     </row>
-    <row r="864" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:6" hidden="1">
       <c r="A864" t="s">
         <v>73</v>
       </c>
@@ -19269,7 +19270,7 @@
         <v>828000</v>
       </c>
     </row>
-    <row r="865" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:6" hidden="1">
       <c r="A865" t="s">
         <v>73</v>
       </c>
@@ -19286,7 +19287,7 @@
         <v>614200</v>
       </c>
     </row>
-    <row r="866" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:6" hidden="1">
       <c r="A866" t="s">
         <v>73</v>
       </c>
@@ -19303,7 +19304,7 @@
         <v>205800</v>
       </c>
     </row>
-    <row r="867" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:6" hidden="1">
       <c r="A867" t="s">
         <v>73</v>
       </c>
@@ -19320,7 +19321,7 @@
         <v>392400</v>
       </c>
     </row>
-    <row r="868" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:6" hidden="1">
       <c r="A868" t="s">
         <v>73</v>
       </c>
@@ -19337,7 +19338,7 @@
         <v>209900</v>
       </c>
     </row>
-    <row r="869" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:6" hidden="1">
       <c r="A869" t="s">
         <v>73</v>
       </c>
@@ -19354,7 +19355,7 @@
         <v>1023000</v>
       </c>
     </row>
-    <row r="870" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:6" hidden="1">
       <c r="A870" t="s">
         <v>73</v>
       </c>
@@ -19371,7 +19372,7 @@
         <v>409200</v>
       </c>
     </row>
-    <row r="871" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:6" hidden="1">
       <c r="A871" t="s">
         <v>73</v>
       </c>
@@ -19388,7 +19389,7 @@
         <v>739000</v>
       </c>
     </row>
-    <row r="872" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:6" hidden="1">
       <c r="A872" t="s">
         <v>73</v>
       </c>
@@ -19405,7 +19406,7 @@
         <v>925300</v>
       </c>
     </row>
-    <row r="873" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:6" hidden="1">
       <c r="A873" t="s">
         <v>73</v>
       </c>
@@ -19422,7 +19423,7 @@
         <v>1480200</v>
       </c>
     </row>
-    <row r="874" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:6" hidden="1">
       <c r="A874" t="s">
         <v>73</v>
       </c>
@@ -19439,7 +19440,7 @@
         <v>227300</v>
       </c>
     </row>
-    <row r="875" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:6" hidden="1">
       <c r="A875" t="s">
         <v>73</v>
       </c>
@@ -19457,7 +19458,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:C875" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="VIC"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>